--- a/outputs/torch/densenet121.xlsx
+++ b/outputs/torch/densenet121.xlsx
@@ -123,7 +123,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -142,6 +142,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="0000FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="00FFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -507,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X434"/>
+  <dimension ref="A1:Z434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -571,12 +578,18 @@
       <c r="T1" s="12" t="n"/>
       <c r="U1" s="10" t="inlineStr">
         <is>
-          <t>Operation Summary</t>
+          <t>Forward Ops</t>
         </is>
       </c>
       <c r="V1" s="11" t="n"/>
-      <c r="W1" s="11" t="n"/>
-      <c r="X1" s="12" t="n"/>
+      <c r="W1" s="12" t="n"/>
+      <c r="X1" s="10" t="inlineStr">
+        <is>
+          <t>Backward Ops</t>
+        </is>
+      </c>
+      <c r="Y1" s="11" t="n"/>
+      <c r="Z1" s="12" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="10" t="inlineStr"/>
@@ -602,62 +615,62 @@
       </c>
       <c r="F2" s="10" t="inlineStr">
         <is>
-          <t>I1</t>
+          <t>Channel</t>
         </is>
       </c>
       <c r="G2" s="10" t="inlineStr">
         <is>
-          <t>I2</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="H2" s="10" t="inlineStr">
         <is>
-          <t>I3</t>
+          <t>Width</t>
         </is>
       </c>
       <c r="I2" s="10" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>Channel</t>
         </is>
       </c>
       <c r="J2" s="10" t="inlineStr">
         <is>
-          <t>O2</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="K2" s="10" t="inlineStr">
         <is>
-          <t>O3</t>
+          <t>Width</t>
         </is>
       </c>
       <c r="L2" s="10" t="inlineStr">
         <is>
-          <t>k1</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="M2" s="10" t="inlineStr">
         <is>
-          <t>k2</t>
+          <t>Width</t>
         </is>
       </c>
       <c r="N2" s="10" t="inlineStr">
         <is>
-          <t>s1</t>
+          <t>X</t>
         </is>
       </c>
       <c r="O2" s="10" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="P2" s="10" t="inlineStr">
         <is>
-          <t>p1</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q2" s="10" t="inlineStr">
         <is>
-          <t>p2</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R2" s="10" t="inlineStr">
@@ -692,7 +705,17 @@
       </c>
       <c r="X2" s="10" t="inlineStr">
         <is>
-          <t>BackProp</t>
+          <t>GEMM</t>
+        </is>
+      </c>
+      <c r="Y2" s="10" t="inlineStr">
+        <is>
+          <t>ElemWise</t>
+        </is>
+      </c>
+      <c r="Z2" s="10" t="inlineStr">
+        <is>
+          <t>Activation</t>
         </is>
       </c>
     </row>
@@ -743,6 +766,8 @@
       <c r="V3" s="8" t="n"/>
       <c r="W3" s="8" t="n"/>
       <c r="X3" s="8" t="n"/>
+      <c r="Y3" s="8" t="n"/>
+      <c r="Z3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
@@ -802,13 +827,15 @@
         <v>9408</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>472055808</v>
+        <v>118013952</v>
       </c>
       <c r="V4" s="8" t="n"/>
       <c r="W4" s="8" t="n"/>
       <c r="X4" s="8" t="n">
-        <v>472055808</v>
-      </c>
+        <v>118013952</v>
+      </c>
+      <c r="Y4" s="8" t="n"/>
+      <c r="Z4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
@@ -860,9 +887,11 @@
         <v>1605632</v>
       </c>
       <c r="W5" s="8" t="n"/>
-      <c r="X5" s="8" t="n">
+      <c r="X5" s="8" t="n"/>
+      <c r="Y5" s="8" t="n">
         <v>1605632</v>
       </c>
+      <c r="Z5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
@@ -912,7 +941,9 @@
       <c r="W6" s="8" t="n">
         <v>802816</v>
       </c>
-      <c r="X6" s="8" t="n">
+      <c r="X6" s="8" t="n"/>
+      <c r="Y6" s="8" t="n"/>
+      <c r="Z6" s="8" t="n">
         <v>802816</v>
       </c>
     </row>
@@ -972,9 +1003,11 @@
         <v>1605632</v>
       </c>
       <c r="W7" s="8" t="n"/>
-      <c r="X7" s="8" t="n">
+      <c r="X7" s="8" t="n"/>
+      <c r="Y7" s="8" t="n">
         <v>2517630976</v>
       </c>
+      <c r="Z7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
@@ -1023,6 +1056,8 @@
       <c r="V8" s="8" t="n"/>
       <c r="W8" s="8" t="n"/>
       <c r="X8" s="8" t="n"/>
+      <c r="Y8" s="8" t="n"/>
+      <c r="Z8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
@@ -1071,6 +1106,8 @@
       <c r="V9" s="8" t="n"/>
       <c r="W9" s="8" t="n"/>
       <c r="X9" s="8" t="n"/>
+      <c r="Y9" s="8" t="n"/>
+      <c r="Z9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
@@ -1122,9 +1159,11 @@
         <v>401408</v>
       </c>
       <c r="W10" s="8" t="n"/>
-      <c r="X10" s="8" t="n">
+      <c r="X10" s="8" t="n"/>
+      <c r="Y10" s="8" t="n">
         <v>401408</v>
       </c>
+      <c r="Z10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
@@ -1174,7 +1213,9 @@
       <c r="W11" s="8" t="n">
         <v>200704</v>
       </c>
-      <c r="X11" s="8" t="n">
+      <c r="X11" s="8" t="n"/>
+      <c r="Y11" s="8" t="n"/>
+      <c r="Z11" s="8" t="n">
         <v>200704</v>
       </c>
     </row>
@@ -1243,6 +1284,8 @@
       <c r="X12" s="8" t="n">
         <v>25690112</v>
       </c>
+      <c r="Y12" s="8" t="n"/>
+      <c r="Z12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
@@ -1294,9 +1337,11 @@
         <v>802816</v>
       </c>
       <c r="W13" s="8" t="n"/>
-      <c r="X13" s="8" t="n">
+      <c r="X13" s="8" t="n"/>
+      <c r="Y13" s="8" t="n">
         <v>802816</v>
       </c>
+      <c r="Z13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
@@ -1346,7 +1391,9 @@
       <c r="W14" s="8" t="n">
         <v>401408</v>
       </c>
-      <c r="X14" s="8" t="n">
+      <c r="X14" s="8" t="n"/>
+      <c r="Y14" s="8" t="n"/>
+      <c r="Z14" s="8" t="n">
         <v>401408</v>
       </c>
     </row>
@@ -1415,6 +1462,8 @@
       <c r="X15" s="8" t="n">
         <v>115605504</v>
       </c>
+      <c r="Y15" s="8" t="n"/>
+      <c r="Z15" s="8" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
@@ -1463,6 +1512,8 @@
       <c r="V16" s="8" t="n"/>
       <c r="W16" s="8" t="n"/>
       <c r="X16" s="8" t="n"/>
+      <c r="Y16" s="8" t="n"/>
+      <c r="Z16" s="8" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
@@ -1514,9 +1565,11 @@
         <v>602112</v>
       </c>
       <c r="W17" s="8" t="n"/>
-      <c r="X17" s="8" t="n">
+      <c r="X17" s="8" t="n"/>
+      <c r="Y17" s="8" t="n">
         <v>602112</v>
       </c>
+      <c r="Z17" s="8" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
@@ -1566,7 +1619,9 @@
       <c r="W18" s="8" t="n">
         <v>301056</v>
       </c>
-      <c r="X18" s="8" t="n">
+      <c r="X18" s="8" t="n"/>
+      <c r="Y18" s="8" t="n"/>
+      <c r="Z18" s="8" t="n">
         <v>301056</v>
       </c>
     </row>
@@ -1635,6 +1690,8 @@
       <c r="X19" s="8" t="n">
         <v>38535168</v>
       </c>
+      <c r="Y19" s="8" t="n"/>
+      <c r="Z19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n">
@@ -1686,9 +1743,11 @@
         <v>802816</v>
       </c>
       <c r="W20" s="8" t="n"/>
-      <c r="X20" s="8" t="n">
+      <c r="X20" s="8" t="n"/>
+      <c r="Y20" s="8" t="n">
         <v>802816</v>
       </c>
+      <c r="Z20" s="8" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="7" t="n">
@@ -1738,7 +1797,9 @@
       <c r="W21" s="8" t="n">
         <v>401408</v>
       </c>
-      <c r="X21" s="8" t="n">
+      <c r="X21" s="8" t="n"/>
+      <c r="Y21" s="8" t="n"/>
+      <c r="Z21" s="8" t="n">
         <v>401408</v>
       </c>
     </row>
@@ -1807,6 +1868,8 @@
       <c r="X22" s="8" t="n">
         <v>115605504</v>
       </c>
+      <c r="Y22" s="8" t="n"/>
+      <c r="Z22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="n">
@@ -1855,6 +1918,8 @@
       <c r="V23" s="8" t="n"/>
       <c r="W23" s="8" t="n"/>
       <c r="X23" s="8" t="n"/>
+      <c r="Y23" s="8" t="n"/>
+      <c r="Z23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="n">
@@ -1906,9 +1971,11 @@
         <v>802816</v>
       </c>
       <c r="W24" s="8" t="n"/>
-      <c r="X24" s="8" t="n">
+      <c r="X24" s="8" t="n"/>
+      <c r="Y24" s="8" t="n">
         <v>802816</v>
       </c>
+      <c r="Z24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="n">
@@ -1958,7 +2025,9 @@
       <c r="W25" s="8" t="n">
         <v>401408</v>
       </c>
-      <c r="X25" s="8" t="n">
+      <c r="X25" s="8" t="n"/>
+      <c r="Y25" s="8" t="n"/>
+      <c r="Z25" s="8" t="n">
         <v>401408</v>
       </c>
     </row>
@@ -2027,6 +2096,8 @@
       <c r="X26" s="8" t="n">
         <v>51380224</v>
       </c>
+      <c r="Y26" s="8" t="n"/>
+      <c r="Z26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="n">
@@ -2078,9 +2149,11 @@
         <v>802816</v>
       </c>
       <c r="W27" s="8" t="n"/>
-      <c r="X27" s="8" t="n">
+      <c r="X27" s="8" t="n"/>
+      <c r="Y27" s="8" t="n">
         <v>802816</v>
       </c>
+      <c r="Z27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="n">
@@ -2130,7 +2203,9 @@
       <c r="W28" s="8" t="n">
         <v>401408</v>
       </c>
-      <c r="X28" s="8" t="n">
+      <c r="X28" s="8" t="n"/>
+      <c r="Y28" s="8" t="n"/>
+      <c r="Z28" s="8" t="n">
         <v>401408</v>
       </c>
     </row>
@@ -2199,6 +2274,8 @@
       <c r="X29" s="8" t="n">
         <v>115605504</v>
       </c>
+      <c r="Y29" s="8" t="n"/>
+      <c r="Z29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="n">
@@ -2247,6 +2324,8 @@
       <c r="V30" s="8" t="n"/>
       <c r="W30" s="8" t="n"/>
       <c r="X30" s="8" t="n"/>
+      <c r="Y30" s="8" t="n"/>
+      <c r="Z30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="n">
@@ -2298,9 +2377,11 @@
         <v>1003520</v>
       </c>
       <c r="W31" s="8" t="n"/>
-      <c r="X31" s="8" t="n">
+      <c r="X31" s="8" t="n"/>
+      <c r="Y31" s="8" t="n">
         <v>1003520</v>
       </c>
+      <c r="Z31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="n">
@@ -2350,7 +2431,9 @@
       <c r="W32" s="8" t="n">
         <v>501760</v>
       </c>
-      <c r="X32" s="8" t="n">
+      <c r="X32" s="8" t="n"/>
+      <c r="Y32" s="8" t="n"/>
+      <c r="Z32" s="8" t="n">
         <v>501760</v>
       </c>
     </row>
@@ -2419,6 +2502,8 @@
       <c r="X33" s="8" t="n">
         <v>64225280</v>
       </c>
+      <c r="Y33" s="8" t="n"/>
+      <c r="Z33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="7" t="n">
@@ -2470,9 +2555,11 @@
         <v>802816</v>
       </c>
       <c r="W34" s="8" t="n"/>
-      <c r="X34" s="8" t="n">
+      <c r="X34" s="8" t="n"/>
+      <c r="Y34" s="8" t="n">
         <v>802816</v>
       </c>
+      <c r="Z34" s="8" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="7" t="n">
@@ -2522,7 +2609,9 @@
       <c r="W35" s="8" t="n">
         <v>401408</v>
       </c>
-      <c r="X35" s="8" t="n">
+      <c r="X35" s="8" t="n"/>
+      <c r="Y35" s="8" t="n"/>
+      <c r="Z35" s="8" t="n">
         <v>401408</v>
       </c>
     </row>
@@ -2591,6 +2680,8 @@
       <c r="X36" s="8" t="n">
         <v>115605504</v>
       </c>
+      <c r="Y36" s="8" t="n"/>
+      <c r="Z36" s="8" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="7" t="n">
@@ -2639,6 +2730,8 @@
       <c r="V37" s="8" t="n"/>
       <c r="W37" s="8" t="n"/>
       <c r="X37" s="8" t="n"/>
+      <c r="Y37" s="8" t="n"/>
+      <c r="Z37" s="8" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="7" t="n">
@@ -2690,9 +2783,11 @@
         <v>1204224</v>
       </c>
       <c r="W38" s="8" t="n"/>
-      <c r="X38" s="8" t="n">
+      <c r="X38" s="8" t="n"/>
+      <c r="Y38" s="8" t="n">
         <v>1204224</v>
       </c>
+      <c r="Z38" s="8" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="7" t="n">
@@ -2742,7 +2837,9 @@
       <c r="W39" s="8" t="n">
         <v>602112</v>
       </c>
-      <c r="X39" s="8" t="n">
+      <c r="X39" s="8" t="n"/>
+      <c r="Y39" s="8" t="n"/>
+      <c r="Z39" s="8" t="n">
         <v>602112</v>
       </c>
     </row>
@@ -2811,6 +2908,8 @@
       <c r="X40" s="8" t="n">
         <v>77070336</v>
       </c>
+      <c r="Y40" s="8" t="n"/>
+      <c r="Z40" s="8" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="7" t="n">
@@ -2862,9 +2961,11 @@
         <v>802816</v>
       </c>
       <c r="W41" s="8" t="n"/>
-      <c r="X41" s="8" t="n">
+      <c r="X41" s="8" t="n"/>
+      <c r="Y41" s="8" t="n">
         <v>802816</v>
       </c>
+      <c r="Z41" s="8" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="7" t="n">
@@ -2914,7 +3015,9 @@
       <c r="W42" s="8" t="n">
         <v>401408</v>
       </c>
-      <c r="X42" s="8" t="n">
+      <c r="X42" s="8" t="n"/>
+      <c r="Y42" s="8" t="n"/>
+      <c r="Z42" s="8" t="n">
         <v>401408</v>
       </c>
     </row>
@@ -2983,6 +3086,8 @@
       <c r="X43" s="8" t="n">
         <v>115605504</v>
       </c>
+      <c r="Y43" s="8" t="n"/>
+      <c r="Z43" s="8" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="7" t="n">
@@ -3031,6 +3136,8 @@
       <c r="V44" s="8" t="n"/>
       <c r="W44" s="8" t="n"/>
       <c r="X44" s="8" t="n"/>
+      <c r="Y44" s="8" t="n"/>
+      <c r="Z44" s="8" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="7" t="n">
@@ -3082,9 +3189,11 @@
         <v>1404928</v>
       </c>
       <c r="W45" s="8" t="n"/>
-      <c r="X45" s="8" t="n">
+      <c r="X45" s="8" t="n"/>
+      <c r="Y45" s="8" t="n">
         <v>1404928</v>
       </c>
+      <c r="Z45" s="8" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="7" t="n">
@@ -3134,7 +3243,9 @@
       <c r="W46" s="8" t="n">
         <v>702464</v>
       </c>
-      <c r="X46" s="8" t="n">
+      <c r="X46" s="8" t="n"/>
+      <c r="Y46" s="8" t="n"/>
+      <c r="Z46" s="8" t="n">
         <v>702464</v>
       </c>
     </row>
@@ -3203,6 +3314,8 @@
       <c r="X47" s="8" t="n">
         <v>89915392</v>
       </c>
+      <c r="Y47" s="8" t="n"/>
+      <c r="Z47" s="8" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="7" t="n">
@@ -3254,9 +3367,11 @@
         <v>802816</v>
       </c>
       <c r="W48" s="8" t="n"/>
-      <c r="X48" s="8" t="n">
+      <c r="X48" s="8" t="n"/>
+      <c r="Y48" s="8" t="n">
         <v>802816</v>
       </c>
+      <c r="Z48" s="8" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="7" t="n">
@@ -3306,7 +3421,9 @@
       <c r="W49" s="8" t="n">
         <v>401408</v>
       </c>
-      <c r="X49" s="8" t="n">
+      <c r="X49" s="8" t="n"/>
+      <c r="Y49" s="8" t="n"/>
+      <c r="Z49" s="8" t="n">
         <v>401408</v>
       </c>
     </row>
@@ -3375,6 +3492,8 @@
       <c r="X50" s="8" t="n">
         <v>115605504</v>
       </c>
+      <c r="Y50" s="8" t="n"/>
+      <c r="Z50" s="8" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="7" t="n">
@@ -3423,6 +3542,8 @@
       <c r="V51" s="8" t="n"/>
       <c r="W51" s="8" t="n"/>
       <c r="X51" s="8" t="n"/>
+      <c r="Y51" s="8" t="n"/>
+      <c r="Z51" s="8" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="7" t="n">
@@ -3474,9 +3595,11 @@
         <v>1605632</v>
       </c>
       <c r="W52" s="8" t="n"/>
-      <c r="X52" s="8" t="n">
+      <c r="X52" s="8" t="n"/>
+      <c r="Y52" s="8" t="n">
         <v>1605632</v>
       </c>
+      <c r="Z52" s="8" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="7" t="n">
@@ -3526,7 +3649,9 @@
       <c r="W53" s="8" t="n">
         <v>802816</v>
       </c>
-      <c r="X53" s="8" t="n">
+      <c r="X53" s="8" t="n"/>
+      <c r="Y53" s="8" t="n"/>
+      <c r="Z53" s="8" t="n">
         <v>802816</v>
       </c>
     </row>
@@ -3595,6 +3720,8 @@
       <c r="X54" s="8" t="n">
         <v>102760448</v>
       </c>
+      <c r="Y54" s="8" t="n"/>
+      <c r="Z54" s="8" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="7" t="n">
@@ -3647,6 +3774,8 @@
       <c r="V55" s="8" t="n"/>
       <c r="W55" s="8" t="n"/>
       <c r="X55" s="8" t="n"/>
+      <c r="Y55" s="8" t="n"/>
+      <c r="Z55" s="8" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="7" t="n">
@@ -3695,6 +3824,8 @@
       <c r="V56" s="8" t="n"/>
       <c r="W56" s="8" t="n"/>
       <c r="X56" s="8" t="n"/>
+      <c r="Y56" s="8" t="n"/>
+      <c r="Z56" s="8" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="7" t="n">
@@ -3743,6 +3874,8 @@
       <c r="V57" s="8" t="n"/>
       <c r="W57" s="8" t="n"/>
       <c r="X57" s="8" t="n"/>
+      <c r="Y57" s="8" t="n"/>
+      <c r="Z57" s="8" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="7" t="n">
@@ -3794,9 +3927,11 @@
         <v>200704</v>
       </c>
       <c r="W58" s="8" t="n"/>
-      <c r="X58" s="8" t="n">
+      <c r="X58" s="8" t="n"/>
+      <c r="Y58" s="8" t="n">
         <v>200704</v>
       </c>
+      <c r="Z58" s="8" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="7" t="n">
@@ -3846,7 +3981,9 @@
       <c r="W59" s="8" t="n">
         <v>100352</v>
       </c>
-      <c r="X59" s="8" t="n">
+      <c r="X59" s="8" t="n"/>
+      <c r="Y59" s="8" t="n"/>
+      <c r="Z59" s="8" t="n">
         <v>100352</v>
       </c>
     </row>
@@ -3915,6 +4052,8 @@
       <c r="X60" s="8" t="n">
         <v>12845056</v>
       </c>
+      <c r="Y60" s="8" t="n"/>
+      <c r="Z60" s="8" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="7" t="n">
@@ -3966,9 +4105,11 @@
         <v>200704</v>
       </c>
       <c r="W61" s="8" t="n"/>
-      <c r="X61" s="8" t="n">
+      <c r="X61" s="8" t="n"/>
+      <c r="Y61" s="8" t="n">
         <v>200704</v>
       </c>
+      <c r="Z61" s="8" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="7" t="n">
@@ -4018,7 +4159,9 @@
       <c r="W62" s="8" t="n">
         <v>100352</v>
       </c>
-      <c r="X62" s="8" t="n">
+      <c r="X62" s="8" t="n"/>
+      <c r="Y62" s="8" t="n"/>
+      <c r="Z62" s="8" t="n">
         <v>100352</v>
       </c>
     </row>
@@ -4087,6 +4230,8 @@
       <c r="X63" s="8" t="n">
         <v>28901376</v>
       </c>
+      <c r="Y63" s="8" t="n"/>
+      <c r="Z63" s="8" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="7" t="n">
@@ -4135,6 +4280,8 @@
       <c r="V64" s="8" t="n"/>
       <c r="W64" s="8" t="n"/>
       <c r="X64" s="8" t="n"/>
+      <c r="Y64" s="8" t="n"/>
+      <c r="Z64" s="8" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="7" t="n">
@@ -4186,9 +4333,11 @@
         <v>250880</v>
       </c>
       <c r="W65" s="8" t="n"/>
-      <c r="X65" s="8" t="n">
+      <c r="X65" s="8" t="n"/>
+      <c r="Y65" s="8" t="n">
         <v>250880</v>
       </c>
+      <c r="Z65" s="8" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="7" t="n">
@@ -4238,7 +4387,9 @@
       <c r="W66" s="8" t="n">
         <v>125440</v>
       </c>
-      <c r="X66" s="8" t="n">
+      <c r="X66" s="8" t="n"/>
+      <c r="Y66" s="8" t="n"/>
+      <c r="Z66" s="8" t="n">
         <v>125440</v>
       </c>
     </row>
@@ -4307,6 +4458,8 @@
       <c r="X67" s="8" t="n">
         <v>16056320</v>
       </c>
+      <c r="Y67" s="8" t="n"/>
+      <c r="Z67" s="8" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="7" t="n">
@@ -4358,9 +4511,11 @@
         <v>200704</v>
       </c>
       <c r="W68" s="8" t="n"/>
-      <c r="X68" s="8" t="n">
+      <c r="X68" s="8" t="n"/>
+      <c r="Y68" s="8" t="n">
         <v>200704</v>
       </c>
+      <c r="Z68" s="8" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="7" t="n">
@@ -4410,7 +4565,9 @@
       <c r="W69" s="8" t="n">
         <v>100352</v>
       </c>
-      <c r="X69" s="8" t="n">
+      <c r="X69" s="8" t="n"/>
+      <c r="Y69" s="8" t="n"/>
+      <c r="Z69" s="8" t="n">
         <v>100352</v>
       </c>
     </row>
@@ -4479,6 +4636,8 @@
       <c r="X70" s="8" t="n">
         <v>28901376</v>
       </c>
+      <c r="Y70" s="8" t="n"/>
+      <c r="Z70" s="8" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="7" t="n">
@@ -4527,6 +4686,8 @@
       <c r="V71" s="8" t="n"/>
       <c r="W71" s="8" t="n"/>
       <c r="X71" s="8" t="n"/>
+      <c r="Y71" s="8" t="n"/>
+      <c r="Z71" s="8" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="7" t="n">
@@ -4578,9 +4739,11 @@
         <v>301056</v>
       </c>
       <c r="W72" s="8" t="n"/>
-      <c r="X72" s="8" t="n">
+      <c r="X72" s="8" t="n"/>
+      <c r="Y72" s="8" t="n">
         <v>301056</v>
       </c>
+      <c r="Z72" s="8" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="7" t="n">
@@ -4630,7 +4793,9 @@
       <c r="W73" s="8" t="n">
         <v>150528</v>
       </c>
-      <c r="X73" s="8" t="n">
+      <c r="X73" s="8" t="n"/>
+      <c r="Y73" s="8" t="n"/>
+      <c r="Z73" s="8" t="n">
         <v>150528</v>
       </c>
     </row>
@@ -4699,6 +4864,8 @@
       <c r="X74" s="8" t="n">
         <v>19267584</v>
       </c>
+      <c r="Y74" s="8" t="n"/>
+      <c r="Z74" s="8" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="7" t="n">
@@ -4750,9 +4917,11 @@
         <v>200704</v>
       </c>
       <c r="W75" s="8" t="n"/>
-      <c r="X75" s="8" t="n">
+      <c r="X75" s="8" t="n"/>
+      <c r="Y75" s="8" t="n">
         <v>200704</v>
       </c>
+      <c r="Z75" s="8" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="7" t="n">
@@ -4802,7 +4971,9 @@
       <c r="W76" s="8" t="n">
         <v>100352</v>
       </c>
-      <c r="X76" s="8" t="n">
+      <c r="X76" s="8" t="n"/>
+      <c r="Y76" s="8" t="n"/>
+      <c r="Z76" s="8" t="n">
         <v>100352</v>
       </c>
     </row>
@@ -4871,6 +5042,8 @@
       <c r="X77" s="8" t="n">
         <v>28901376</v>
       </c>
+      <c r="Y77" s="8" t="n"/>
+      <c r="Z77" s="8" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="7" t="n">
@@ -4919,6 +5092,8 @@
       <c r="V78" s="8" t="n"/>
       <c r="W78" s="8" t="n"/>
       <c r="X78" s="8" t="n"/>
+      <c r="Y78" s="8" t="n"/>
+      <c r="Z78" s="8" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="7" t="n">
@@ -4970,9 +5145,11 @@
         <v>351232</v>
       </c>
       <c r="W79" s="8" t="n"/>
-      <c r="X79" s="8" t="n">
+      <c r="X79" s="8" t="n"/>
+      <c r="Y79" s="8" t="n">
         <v>351232</v>
       </c>
+      <c r="Z79" s="8" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="7" t="n">
@@ -5022,7 +5199,9 @@
       <c r="W80" s="8" t="n">
         <v>175616</v>
       </c>
-      <c r="X80" s="8" t="n">
+      <c r="X80" s="8" t="n"/>
+      <c r="Y80" s="8" t="n"/>
+      <c r="Z80" s="8" t="n">
         <v>175616</v>
       </c>
     </row>
@@ -5091,6 +5270,8 @@
       <c r="X81" s="8" t="n">
         <v>22478848</v>
       </c>
+      <c r="Y81" s="8" t="n"/>
+      <c r="Z81" s="8" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="7" t="n">
@@ -5142,9 +5323,11 @@
         <v>200704</v>
       </c>
       <c r="W82" s="8" t="n"/>
-      <c r="X82" s="8" t="n">
+      <c r="X82" s="8" t="n"/>
+      <c r="Y82" s="8" t="n">
         <v>200704</v>
       </c>
+      <c r="Z82" s="8" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="7" t="n">
@@ -5194,7 +5377,9 @@
       <c r="W83" s="8" t="n">
         <v>100352</v>
       </c>
-      <c r="X83" s="8" t="n">
+      <c r="X83" s="8" t="n"/>
+      <c r="Y83" s="8" t="n"/>
+      <c r="Z83" s="8" t="n">
         <v>100352</v>
       </c>
     </row>
@@ -5263,6 +5448,8 @@
       <c r="X84" s="8" t="n">
         <v>28901376</v>
       </c>
+      <c r="Y84" s="8" t="n"/>
+      <c r="Z84" s="8" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="7" t="n">
@@ -5311,6 +5498,8 @@
       <c r="V85" s="8" t="n"/>
       <c r="W85" s="8" t="n"/>
       <c r="X85" s="8" t="n"/>
+      <c r="Y85" s="8" t="n"/>
+      <c r="Z85" s="8" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="7" t="n">
@@ -5362,9 +5551,11 @@
         <v>401408</v>
       </c>
       <c r="W86" s="8" t="n"/>
-      <c r="X86" s="8" t="n">
+      <c r="X86" s="8" t="n"/>
+      <c r="Y86" s="8" t="n">
         <v>401408</v>
       </c>
+      <c r="Z86" s="8" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="7" t="n">
@@ -5414,7 +5605,9 @@
       <c r="W87" s="8" t="n">
         <v>200704</v>
       </c>
-      <c r="X87" s="8" t="n">
+      <c r="X87" s="8" t="n"/>
+      <c r="Y87" s="8" t="n"/>
+      <c r="Z87" s="8" t="n">
         <v>200704</v>
       </c>
     </row>
@@ -5483,6 +5676,8 @@
       <c r="X88" s="8" t="n">
         <v>25690112</v>
       </c>
+      <c r="Y88" s="8" t="n"/>
+      <c r="Z88" s="8" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="7" t="n">
@@ -5534,9 +5729,11 @@
         <v>200704</v>
       </c>
       <c r="W89" s="8" t="n"/>
-      <c r="X89" s="8" t="n">
+      <c r="X89" s="8" t="n"/>
+      <c r="Y89" s="8" t="n">
         <v>200704</v>
       </c>
+      <c r="Z89" s="8" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="7" t="n">
@@ -5586,7 +5783,9 @@
       <c r="W90" s="8" t="n">
         <v>100352</v>
       </c>
-      <c r="X90" s="8" t="n">
+      <c r="X90" s="8" t="n"/>
+      <c r="Y90" s="8" t="n"/>
+      <c r="Z90" s="8" t="n">
         <v>100352</v>
       </c>
     </row>
@@ -5655,6 +5854,8 @@
       <c r="X91" s="8" t="n">
         <v>28901376</v>
       </c>
+      <c r="Y91" s="8" t="n"/>
+      <c r="Z91" s="8" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="7" t="n">
@@ -5703,6 +5904,8 @@
       <c r="V92" s="8" t="n"/>
       <c r="W92" s="8" t="n"/>
       <c r="X92" s="8" t="n"/>
+      <c r="Y92" s="8" t="n"/>
+      <c r="Z92" s="8" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="7" t="n">
@@ -5754,9 +5957,11 @@
         <v>451584</v>
       </c>
       <c r="W93" s="8" t="n"/>
-      <c r="X93" s="8" t="n">
+      <c r="X93" s="8" t="n"/>
+      <c r="Y93" s="8" t="n">
         <v>451584</v>
       </c>
+      <c r="Z93" s="8" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="7" t="n">
@@ -5806,7 +6011,9 @@
       <c r="W94" s="8" t="n">
         <v>225792</v>
       </c>
-      <c r="X94" s="8" t="n">
+      <c r="X94" s="8" t="n"/>
+      <c r="Y94" s="8" t="n"/>
+      <c r="Z94" s="8" t="n">
         <v>225792</v>
       </c>
     </row>
@@ -5875,6 +6082,8 @@
       <c r="X95" s="8" t="n">
         <v>28901376</v>
       </c>
+      <c r="Y95" s="8" t="n"/>
+      <c r="Z95" s="8" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="7" t="n">
@@ -5926,9 +6135,11 @@
         <v>200704</v>
       </c>
       <c r="W96" s="8" t="n"/>
-      <c r="X96" s="8" t="n">
+      <c r="X96" s="8" t="n"/>
+      <c r="Y96" s="8" t="n">
         <v>200704</v>
       </c>
+      <c r="Z96" s="8" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="7" t="n">
@@ -5978,7 +6189,9 @@
       <c r="W97" s="8" t="n">
         <v>100352</v>
       </c>
-      <c r="X97" s="8" t="n">
+      <c r="X97" s="8" t="n"/>
+      <c r="Y97" s="8" t="n"/>
+      <c r="Z97" s="8" t="n">
         <v>100352</v>
       </c>
     </row>
@@ -6047,6 +6260,8 @@
       <c r="X98" s="8" t="n">
         <v>28901376</v>
       </c>
+      <c r="Y98" s="8" t="n"/>
+      <c r="Z98" s="8" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="7" t="n">
@@ -6095,6 +6310,8 @@
       <c r="V99" s="8" t="n"/>
       <c r="W99" s="8" t="n"/>
       <c r="X99" s="8" t="n"/>
+      <c r="Y99" s="8" t="n"/>
+      <c r="Z99" s="8" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="7" t="n">
@@ -6146,9 +6363,11 @@
         <v>501760</v>
       </c>
       <c r="W100" s="8" t="n"/>
-      <c r="X100" s="8" t="n">
+      <c r="X100" s="8" t="n"/>
+      <c r="Y100" s="8" t="n">
         <v>501760</v>
       </c>
+      <c r="Z100" s="8" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="7" t="n">
@@ -6198,7 +6417,9 @@
       <c r="W101" s="8" t="n">
         <v>250880</v>
       </c>
-      <c r="X101" s="8" t="n">
+      <c r="X101" s="8" t="n"/>
+      <c r="Y101" s="8" t="n"/>
+      <c r="Z101" s="8" t="n">
         <v>250880</v>
       </c>
     </row>
@@ -6267,6 +6488,8 @@
       <c r="X102" s="8" t="n">
         <v>32112640</v>
       </c>
+      <c r="Y102" s="8" t="n"/>
+      <c r="Z102" s="8" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="7" t="n">
@@ -6318,9 +6541,11 @@
         <v>200704</v>
       </c>
       <c r="W103" s="8" t="n"/>
-      <c r="X103" s="8" t="n">
+      <c r="X103" s="8" t="n"/>
+      <c r="Y103" s="8" t="n">
         <v>200704</v>
       </c>
+      <c r="Z103" s="8" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="7" t="n">
@@ -6370,7 +6595,9 @@
       <c r="W104" s="8" t="n">
         <v>100352</v>
       </c>
-      <c r="X104" s="8" t="n">
+      <c r="X104" s="8" t="n"/>
+      <c r="Y104" s="8" t="n"/>
+      <c r="Z104" s="8" t="n">
         <v>100352</v>
       </c>
     </row>
@@ -6439,6 +6666,8 @@
       <c r="X105" s="8" t="n">
         <v>28901376</v>
       </c>
+      <c r="Y105" s="8" t="n"/>
+      <c r="Z105" s="8" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="7" t="n">
@@ -6487,6 +6716,8 @@
       <c r="V106" s="8" t="n"/>
       <c r="W106" s="8" t="n"/>
       <c r="X106" s="8" t="n"/>
+      <c r="Y106" s="8" t="n"/>
+      <c r="Z106" s="8" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="7" t="n">
@@ -6538,9 +6769,11 @@
         <v>551936</v>
       </c>
       <c r="W107" s="8" t="n"/>
-      <c r="X107" s="8" t="n">
+      <c r="X107" s="8" t="n"/>
+      <c r="Y107" s="8" t="n">
         <v>551936</v>
       </c>
+      <c r="Z107" s="8" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="7" t="n">
@@ -6590,7 +6823,9 @@
       <c r="W108" s="8" t="n">
         <v>275968</v>
       </c>
-      <c r="X108" s="8" t="n">
+      <c r="X108" s="8" t="n"/>
+      <c r="Y108" s="8" t="n"/>
+      <c r="Z108" s="8" t="n">
         <v>275968</v>
       </c>
     </row>
@@ -6659,6 +6894,8 @@
       <c r="X109" s="8" t="n">
         <v>35323904</v>
       </c>
+      <c r="Y109" s="8" t="n"/>
+      <c r="Z109" s="8" t="n"/>
     </row>
     <row r="110">
       <c r="A110" s="7" t="n">
@@ -6710,9 +6947,11 @@
         <v>200704</v>
       </c>
       <c r="W110" s="8" t="n"/>
-      <c r="X110" s="8" t="n">
+      <c r="X110" s="8" t="n"/>
+      <c r="Y110" s="8" t="n">
         <v>200704</v>
       </c>
+      <c r="Z110" s="8" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="7" t="n">
@@ -6762,7 +7001,9 @@
       <c r="W111" s="8" t="n">
         <v>100352</v>
       </c>
-      <c r="X111" s="8" t="n">
+      <c r="X111" s="8" t="n"/>
+      <c r="Y111" s="8" t="n"/>
+      <c r="Z111" s="8" t="n">
         <v>100352</v>
       </c>
     </row>
@@ -6831,6 +7072,8 @@
       <c r="X112" s="8" t="n">
         <v>28901376</v>
       </c>
+      <c r="Y112" s="8" t="n"/>
+      <c r="Z112" s="8" t="n"/>
     </row>
     <row r="113">
       <c r="A113" s="7" t="n">
@@ -6879,6 +7122,8 @@
       <c r="V113" s="8" t="n"/>
       <c r="W113" s="8" t="n"/>
       <c r="X113" s="8" t="n"/>
+      <c r="Y113" s="8" t="n"/>
+      <c r="Z113" s="8" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="7" t="n">
@@ -6930,9 +7175,11 @@
         <v>602112</v>
       </c>
       <c r="W114" s="8" t="n"/>
-      <c r="X114" s="8" t="n">
+      <c r="X114" s="8" t="n"/>
+      <c r="Y114" s="8" t="n">
         <v>602112</v>
       </c>
+      <c r="Z114" s="8" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="7" t="n">
@@ -6982,7 +7229,9 @@
       <c r="W115" s="8" t="n">
         <v>301056</v>
       </c>
-      <c r="X115" s="8" t="n">
+      <c r="X115" s="8" t="n"/>
+      <c r="Y115" s="8" t="n"/>
+      <c r="Z115" s="8" t="n">
         <v>301056</v>
       </c>
     </row>
@@ -7051,6 +7300,8 @@
       <c r="X116" s="8" t="n">
         <v>38535168</v>
       </c>
+      <c r="Y116" s="8" t="n"/>
+      <c r="Z116" s="8" t="n"/>
     </row>
     <row r="117">
       <c r="A117" s="7" t="n">
@@ -7102,9 +7353,11 @@
         <v>200704</v>
       </c>
       <c r="W117" s="8" t="n"/>
-      <c r="X117" s="8" t="n">
+      <c r="X117" s="8" t="n"/>
+      <c r="Y117" s="8" t="n">
         <v>200704</v>
       </c>
+      <c r="Z117" s="8" t="n"/>
     </row>
     <row r="118">
       <c r="A118" s="7" t="n">
@@ -7154,7 +7407,9 @@
       <c r="W118" s="8" t="n">
         <v>100352</v>
       </c>
-      <c r="X118" s="8" t="n">
+      <c r="X118" s="8" t="n"/>
+      <c r="Y118" s="8" t="n"/>
+      <c r="Z118" s="8" t="n">
         <v>100352</v>
       </c>
     </row>
@@ -7223,6 +7478,8 @@
       <c r="X119" s="8" t="n">
         <v>28901376</v>
       </c>
+      <c r="Y119" s="8" t="n"/>
+      <c r="Z119" s="8" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="7" t="n">
@@ -7271,6 +7528,8 @@
       <c r="V120" s="8" t="n"/>
       <c r="W120" s="8" t="n"/>
       <c r="X120" s="8" t="n"/>
+      <c r="Y120" s="8" t="n"/>
+      <c r="Z120" s="8" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="7" t="n">
@@ -7322,9 +7581,11 @@
         <v>652288</v>
       </c>
       <c r="W121" s="8" t="n"/>
-      <c r="X121" s="8" t="n">
+      <c r="X121" s="8" t="n"/>
+      <c r="Y121" s="8" t="n">
         <v>652288</v>
       </c>
+      <c r="Z121" s="8" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="7" t="n">
@@ -7374,7 +7635,9 @@
       <c r="W122" s="8" t="n">
         <v>326144</v>
       </c>
-      <c r="X122" s="8" t="n">
+      <c r="X122" s="8" t="n"/>
+      <c r="Y122" s="8" t="n"/>
+      <c r="Z122" s="8" t="n">
         <v>326144</v>
       </c>
     </row>
@@ -7443,6 +7706,8 @@
       <c r="X123" s="8" t="n">
         <v>41746432</v>
       </c>
+      <c r="Y123" s="8" t="n"/>
+      <c r="Z123" s="8" t="n"/>
     </row>
     <row r="124">
       <c r="A124" s="7" t="n">
@@ -7494,9 +7759,11 @@
         <v>200704</v>
       </c>
       <c r="W124" s="8" t="n"/>
-      <c r="X124" s="8" t="n">
+      <c r="X124" s="8" t="n"/>
+      <c r="Y124" s="8" t="n">
         <v>200704</v>
       </c>
+      <c r="Z124" s="8" t="n"/>
     </row>
     <row r="125">
       <c r="A125" s="7" t="n">
@@ -7546,7 +7813,9 @@
       <c r="W125" s="8" t="n">
         <v>100352</v>
       </c>
-      <c r="X125" s="8" t="n">
+      <c r="X125" s="8" t="n"/>
+      <c r="Y125" s="8" t="n"/>
+      <c r="Z125" s="8" t="n">
         <v>100352</v>
       </c>
     </row>
@@ -7615,6 +7884,8 @@
       <c r="X126" s="8" t="n">
         <v>28901376</v>
       </c>
+      <c r="Y126" s="8" t="n"/>
+      <c r="Z126" s="8" t="n"/>
     </row>
     <row r="127">
       <c r="A127" s="7" t="n">
@@ -7663,6 +7934,8 @@
       <c r="V127" s="8" t="n"/>
       <c r="W127" s="8" t="n"/>
       <c r="X127" s="8" t="n"/>
+      <c r="Y127" s="8" t="n"/>
+      <c r="Z127" s="8" t="n"/>
     </row>
     <row r="128">
       <c r="A128" s="7" t="n">
@@ -7714,9 +7987,11 @@
         <v>702464</v>
       </c>
       <c r="W128" s="8" t="n"/>
-      <c r="X128" s="8" t="n">
+      <c r="X128" s="8" t="n"/>
+      <c r="Y128" s="8" t="n">
         <v>702464</v>
       </c>
+      <c r="Z128" s="8" t="n"/>
     </row>
     <row r="129">
       <c r="A129" s="7" t="n">
@@ -7766,7 +8041,9 @@
       <c r="W129" s="8" t="n">
         <v>351232</v>
       </c>
-      <c r="X129" s="8" t="n">
+      <c r="X129" s="8" t="n"/>
+      <c r="Y129" s="8" t="n"/>
+      <c r="Z129" s="8" t="n">
         <v>351232</v>
       </c>
     </row>
@@ -7835,6 +8112,8 @@
       <c r="X130" s="8" t="n">
         <v>44957696</v>
       </c>
+      <c r="Y130" s="8" t="n"/>
+      <c r="Z130" s="8" t="n"/>
     </row>
     <row r="131">
       <c r="A131" s="7" t="n">
@@ -7886,9 +8165,11 @@
         <v>200704</v>
       </c>
       <c r="W131" s="8" t="n"/>
-      <c r="X131" s="8" t="n">
+      <c r="X131" s="8" t="n"/>
+      <c r="Y131" s="8" t="n">
         <v>200704</v>
       </c>
+      <c r="Z131" s="8" t="n"/>
     </row>
     <row r="132">
       <c r="A132" s="7" t="n">
@@ -7938,7 +8219,9 @@
       <c r="W132" s="8" t="n">
         <v>100352</v>
       </c>
-      <c r="X132" s="8" t="n">
+      <c r="X132" s="8" t="n"/>
+      <c r="Y132" s="8" t="n"/>
+      <c r="Z132" s="8" t="n">
         <v>100352</v>
       </c>
     </row>
@@ -8007,6 +8290,8 @@
       <c r="X133" s="8" t="n">
         <v>28901376</v>
       </c>
+      <c r="Y133" s="8" t="n"/>
+      <c r="Z133" s="8" t="n"/>
     </row>
     <row r="134">
       <c r="A134" s="7" t="n">
@@ -8055,6 +8340,8 @@
       <c r="V134" s="8" t="n"/>
       <c r="W134" s="8" t="n"/>
       <c r="X134" s="8" t="n"/>
+      <c r="Y134" s="8" t="n"/>
+      <c r="Z134" s="8" t="n"/>
     </row>
     <row r="135">
       <c r="A135" s="7" t="n">
@@ -8106,9 +8393,11 @@
         <v>752640</v>
       </c>
       <c r="W135" s="8" t="n"/>
-      <c r="X135" s="8" t="n">
+      <c r="X135" s="8" t="n"/>
+      <c r="Y135" s="8" t="n">
         <v>752640</v>
       </c>
+      <c r="Z135" s="8" t="n"/>
     </row>
     <row r="136">
       <c r="A136" s="7" t="n">
@@ -8158,7 +8447,9 @@
       <c r="W136" s="8" t="n">
         <v>376320</v>
       </c>
-      <c r="X136" s="8" t="n">
+      <c r="X136" s="8" t="n"/>
+      <c r="Y136" s="8" t="n"/>
+      <c r="Z136" s="8" t="n">
         <v>376320</v>
       </c>
     </row>
@@ -8227,6 +8518,8 @@
       <c r="X137" s="8" t="n">
         <v>48168960</v>
       </c>
+      <c r="Y137" s="8" t="n"/>
+      <c r="Z137" s="8" t="n"/>
     </row>
     <row r="138">
       <c r="A138" s="7" t="n">
@@ -8278,9 +8571,11 @@
         <v>200704</v>
       </c>
       <c r="W138" s="8" t="n"/>
-      <c r="X138" s="8" t="n">
+      <c r="X138" s="8" t="n"/>
+      <c r="Y138" s="8" t="n">
         <v>200704</v>
       </c>
+      <c r="Z138" s="8" t="n"/>
     </row>
     <row r="139">
       <c r="A139" s="7" t="n">
@@ -8330,7 +8625,9 @@
       <c r="W139" s="8" t="n">
         <v>100352</v>
       </c>
-      <c r="X139" s="8" t="n">
+      <c r="X139" s="8" t="n"/>
+      <c r="Y139" s="8" t="n"/>
+      <c r="Z139" s="8" t="n">
         <v>100352</v>
       </c>
     </row>
@@ -8399,6 +8696,8 @@
       <c r="X140" s="8" t="n">
         <v>28901376</v>
       </c>
+      <c r="Y140" s="8" t="n"/>
+      <c r="Z140" s="8" t="n"/>
     </row>
     <row r="141">
       <c r="A141" s="7" t="n">
@@ -8447,6 +8746,8 @@
       <c r="V141" s="8" t="n"/>
       <c r="W141" s="8" t="n"/>
       <c r="X141" s="8" t="n"/>
+      <c r="Y141" s="8" t="n"/>
+      <c r="Z141" s="8" t="n"/>
     </row>
     <row r="142">
       <c r="A142" s="7" t="n">
@@ -8498,9 +8799,11 @@
         <v>802816</v>
       </c>
       <c r="W142" s="8" t="n"/>
-      <c r="X142" s="8" t="n">
+      <c r="X142" s="8" t="n"/>
+      <c r="Y142" s="8" t="n">
         <v>802816</v>
       </c>
+      <c r="Z142" s="8" t="n"/>
     </row>
     <row r="143">
       <c r="A143" s="7" t="n">
@@ -8550,7 +8853,9 @@
       <c r="W143" s="8" t="n">
         <v>401408</v>
       </c>
-      <c r="X143" s="8" t="n">
+      <c r="X143" s="8" t="n"/>
+      <c r="Y143" s="8" t="n"/>
+      <c r="Z143" s="8" t="n">
         <v>401408</v>
       </c>
     </row>
@@ -8619,6 +8924,8 @@
       <c r="X144" s="8" t="n">
         <v>102760448</v>
       </c>
+      <c r="Y144" s="8" t="n"/>
+      <c r="Z144" s="8" t="n"/>
     </row>
     <row r="145">
       <c r="A145" s="7" t="n">
@@ -8671,6 +8978,8 @@
       <c r="V145" s="8" t="n"/>
       <c r="W145" s="8" t="n"/>
       <c r="X145" s="8" t="n"/>
+      <c r="Y145" s="8" t="n"/>
+      <c r="Z145" s="8" t="n"/>
     </row>
     <row r="146">
       <c r="A146" s="7" t="n">
@@ -8719,6 +9028,8 @@
       <c r="V146" s="8" t="n"/>
       <c r="W146" s="8" t="n"/>
       <c r="X146" s="8" t="n"/>
+      <c r="Y146" s="8" t="n"/>
+      <c r="Z146" s="8" t="n"/>
     </row>
     <row r="147">
       <c r="A147" s="7" t="n">
@@ -8767,6 +9078,8 @@
       <c r="V147" s="8" t="n"/>
       <c r="W147" s="8" t="n"/>
       <c r="X147" s="8" t="n"/>
+      <c r="Y147" s="8" t="n"/>
+      <c r="Z147" s="8" t="n"/>
     </row>
     <row r="148">
       <c r="A148" s="7" t="n">
@@ -8818,9 +9131,11 @@
         <v>100352</v>
       </c>
       <c r="W148" s="8" t="n"/>
-      <c r="X148" s="8" t="n">
+      <c r="X148" s="8" t="n"/>
+      <c r="Y148" s="8" t="n">
         <v>100352</v>
       </c>
+      <c r="Z148" s="8" t="n"/>
     </row>
     <row r="149">
       <c r="A149" s="7" t="n">
@@ -8870,7 +9185,9 @@
       <c r="W149" s="8" t="n">
         <v>50176</v>
       </c>
-      <c r="X149" s="8" t="n">
+      <c r="X149" s="8" t="n"/>
+      <c r="Y149" s="8" t="n"/>
+      <c r="Z149" s="8" t="n">
         <v>50176</v>
       </c>
     </row>
@@ -8939,6 +9256,8 @@
       <c r="X150" s="8" t="n">
         <v>6422528</v>
       </c>
+      <c r="Y150" s="8" t="n"/>
+      <c r="Z150" s="8" t="n"/>
     </row>
     <row r="151">
       <c r="A151" s="7" t="n">
@@ -8990,9 +9309,11 @@
         <v>50176</v>
       </c>
       <c r="W151" s="8" t="n"/>
-      <c r="X151" s="8" t="n">
+      <c r="X151" s="8" t="n"/>
+      <c r="Y151" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z151" s="8" t="n"/>
     </row>
     <row r="152">
       <c r="A152" s="7" t="n">
@@ -9042,7 +9363,9 @@
       <c r="W152" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X152" s="8" t="n">
+      <c r="X152" s="8" t="n"/>
+      <c r="Y152" s="8" t="n"/>
+      <c r="Z152" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -9111,6 +9434,8 @@
       <c r="X153" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y153" s="8" t="n"/>
+      <c r="Z153" s="8" t="n"/>
     </row>
     <row r="154">
       <c r="A154" s="7" t="n">
@@ -9159,6 +9484,8 @@
       <c r="V154" s="8" t="n"/>
       <c r="W154" s="8" t="n"/>
       <c r="X154" s="8" t="n"/>
+      <c r="Y154" s="8" t="n"/>
+      <c r="Z154" s="8" t="n"/>
     </row>
     <row r="155">
       <c r="A155" s="7" t="n">
@@ -9210,9 +9537,11 @@
         <v>112896</v>
       </c>
       <c r="W155" s="8" t="n"/>
-      <c r="X155" s="8" t="n">
+      <c r="X155" s="8" t="n"/>
+      <c r="Y155" s="8" t="n">
         <v>112896</v>
       </c>
+      <c r="Z155" s="8" t="n"/>
     </row>
     <row r="156">
       <c r="A156" s="7" t="n">
@@ -9262,7 +9591,9 @@
       <c r="W156" s="8" t="n">
         <v>56448</v>
       </c>
-      <c r="X156" s="8" t="n">
+      <c r="X156" s="8" t="n"/>
+      <c r="Y156" s="8" t="n"/>
+      <c r="Z156" s="8" t="n">
         <v>56448</v>
       </c>
     </row>
@@ -9331,6 +9662,8 @@
       <c r="X157" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y157" s="8" t="n"/>
+      <c r="Z157" s="8" t="n"/>
     </row>
     <row r="158">
       <c r="A158" s="7" t="n">
@@ -9382,9 +9715,11 @@
         <v>50176</v>
       </c>
       <c r="W158" s="8" t="n"/>
-      <c r="X158" s="8" t="n">
+      <c r="X158" s="8" t="n"/>
+      <c r="Y158" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z158" s="8" t="n"/>
     </row>
     <row r="159">
       <c r="A159" s="7" t="n">
@@ -9434,7 +9769,9 @@
       <c r="W159" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X159" s="8" t="n">
+      <c r="X159" s="8" t="n"/>
+      <c r="Y159" s="8" t="n"/>
+      <c r="Z159" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -9503,6 +9840,8 @@
       <c r="X160" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y160" s="8" t="n"/>
+      <c r="Z160" s="8" t="n"/>
     </row>
     <row r="161">
       <c r="A161" s="7" t="n">
@@ -9551,6 +9890,8 @@
       <c r="V161" s="8" t="n"/>
       <c r="W161" s="8" t="n"/>
       <c r="X161" s="8" t="n"/>
+      <c r="Y161" s="8" t="n"/>
+      <c r="Z161" s="8" t="n"/>
     </row>
     <row r="162">
       <c r="A162" s="7" t="n">
@@ -9602,9 +9943,11 @@
         <v>125440</v>
       </c>
       <c r="W162" s="8" t="n"/>
-      <c r="X162" s="8" t="n">
+      <c r="X162" s="8" t="n"/>
+      <c r="Y162" s="8" t="n">
         <v>125440</v>
       </c>
+      <c r="Z162" s="8" t="n"/>
     </row>
     <row r="163">
       <c r="A163" s="7" t="n">
@@ -9654,7 +9997,9 @@
       <c r="W163" s="8" t="n">
         <v>62720</v>
       </c>
-      <c r="X163" s="8" t="n">
+      <c r="X163" s="8" t="n"/>
+      <c r="Y163" s="8" t="n"/>
+      <c r="Z163" s="8" t="n">
         <v>62720</v>
       </c>
     </row>
@@ -9723,6 +10068,8 @@
       <c r="X164" s="8" t="n">
         <v>8028160</v>
       </c>
+      <c r="Y164" s="8" t="n"/>
+      <c r="Z164" s="8" t="n"/>
     </row>
     <row r="165">
       <c r="A165" s="7" t="n">
@@ -9774,9 +10121,11 @@
         <v>50176</v>
       </c>
       <c r="W165" s="8" t="n"/>
-      <c r="X165" s="8" t="n">
+      <c r="X165" s="8" t="n"/>
+      <c r="Y165" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z165" s="8" t="n"/>
     </row>
     <row r="166">
       <c r="A166" s="7" t="n">
@@ -9826,7 +10175,9 @@
       <c r="W166" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X166" s="8" t="n">
+      <c r="X166" s="8" t="n"/>
+      <c r="Y166" s="8" t="n"/>
+      <c r="Z166" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -9895,6 +10246,8 @@
       <c r="X167" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y167" s="8" t="n"/>
+      <c r="Z167" s="8" t="n"/>
     </row>
     <row r="168">
       <c r="A168" s="7" t="n">
@@ -9943,6 +10296,8 @@
       <c r="V168" s="8" t="n"/>
       <c r="W168" s="8" t="n"/>
       <c r="X168" s="8" t="n"/>
+      <c r="Y168" s="8" t="n"/>
+      <c r="Z168" s="8" t="n"/>
     </row>
     <row r="169">
       <c r="A169" s="7" t="n">
@@ -9994,9 +10349,11 @@
         <v>137984</v>
       </c>
       <c r="W169" s="8" t="n"/>
-      <c r="X169" s="8" t="n">
+      <c r="X169" s="8" t="n"/>
+      <c r="Y169" s="8" t="n">
         <v>137984</v>
       </c>
+      <c r="Z169" s="8" t="n"/>
     </row>
     <row r="170">
       <c r="A170" s="7" t="n">
@@ -10046,7 +10403,9 @@
       <c r="W170" s="8" t="n">
         <v>68992</v>
       </c>
-      <c r="X170" s="8" t="n">
+      <c r="X170" s="8" t="n"/>
+      <c r="Y170" s="8" t="n"/>
+      <c r="Z170" s="8" t="n">
         <v>68992</v>
       </c>
     </row>
@@ -10115,6 +10474,8 @@
       <c r="X171" s="8" t="n">
         <v>8830976</v>
       </c>
+      <c r="Y171" s="8" t="n"/>
+      <c r="Z171" s="8" t="n"/>
     </row>
     <row r="172">
       <c r="A172" s="7" t="n">
@@ -10166,9 +10527,11 @@
         <v>50176</v>
       </c>
       <c r="W172" s="8" t="n"/>
-      <c r="X172" s="8" t="n">
+      <c r="X172" s="8" t="n"/>
+      <c r="Y172" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z172" s="8" t="n"/>
     </row>
     <row r="173">
       <c r="A173" s="7" t="n">
@@ -10218,7 +10581,9 @@
       <c r="W173" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X173" s="8" t="n">
+      <c r="X173" s="8" t="n"/>
+      <c r="Y173" s="8" t="n"/>
+      <c r="Z173" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -10287,6 +10652,8 @@
       <c r="X174" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y174" s="8" t="n"/>
+      <c r="Z174" s="8" t="n"/>
     </row>
     <row r="175">
       <c r="A175" s="7" t="n">
@@ -10335,6 +10702,8 @@
       <c r="V175" s="8" t="n"/>
       <c r="W175" s="8" t="n"/>
       <c r="X175" s="8" t="n"/>
+      <c r="Y175" s="8" t="n"/>
+      <c r="Z175" s="8" t="n"/>
     </row>
     <row r="176">
       <c r="A176" s="7" t="n">
@@ -10386,9 +10755,11 @@
         <v>150528</v>
       </c>
       <c r="W176" s="8" t="n"/>
-      <c r="X176" s="8" t="n">
+      <c r="X176" s="8" t="n"/>
+      <c r="Y176" s="8" t="n">
         <v>150528</v>
       </c>
+      <c r="Z176" s="8" t="n"/>
     </row>
     <row r="177">
       <c r="A177" s="7" t="n">
@@ -10438,7 +10809,9 @@
       <c r="W177" s="8" t="n">
         <v>75264</v>
       </c>
-      <c r="X177" s="8" t="n">
+      <c r="X177" s="8" t="n"/>
+      <c r="Y177" s="8" t="n"/>
+      <c r="Z177" s="8" t="n">
         <v>75264</v>
       </c>
     </row>
@@ -10507,6 +10880,8 @@
       <c r="X178" s="8" t="n">
         <v>9633792</v>
       </c>
+      <c r="Y178" s="8" t="n"/>
+      <c r="Z178" s="8" t="n"/>
     </row>
     <row r="179">
       <c r="A179" s="7" t="n">
@@ -10558,9 +10933,11 @@
         <v>50176</v>
       </c>
       <c r="W179" s="8" t="n"/>
-      <c r="X179" s="8" t="n">
+      <c r="X179" s="8" t="n"/>
+      <c r="Y179" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z179" s="8" t="n"/>
     </row>
     <row r="180">
       <c r="A180" s="7" t="n">
@@ -10610,7 +10987,9 @@
       <c r="W180" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X180" s="8" t="n">
+      <c r="X180" s="8" t="n"/>
+      <c r="Y180" s="8" t="n"/>
+      <c r="Z180" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -10679,6 +11058,8 @@
       <c r="X181" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y181" s="8" t="n"/>
+      <c r="Z181" s="8" t="n"/>
     </row>
     <row r="182">
       <c r="A182" s="7" t="n">
@@ -10727,6 +11108,8 @@
       <c r="V182" s="8" t="n"/>
       <c r="W182" s="8" t="n"/>
       <c r="X182" s="8" t="n"/>
+      <c r="Y182" s="8" t="n"/>
+      <c r="Z182" s="8" t="n"/>
     </row>
     <row r="183">
       <c r="A183" s="7" t="n">
@@ -10778,9 +11161,11 @@
         <v>163072</v>
       </c>
       <c r="W183" s="8" t="n"/>
-      <c r="X183" s="8" t="n">
+      <c r="X183" s="8" t="n"/>
+      <c r="Y183" s="8" t="n">
         <v>163072</v>
       </c>
+      <c r="Z183" s="8" t="n"/>
     </row>
     <row r="184">
       <c r="A184" s="7" t="n">
@@ -10830,7 +11215,9 @@
       <c r="W184" s="8" t="n">
         <v>81536</v>
       </c>
-      <c r="X184" s="8" t="n">
+      <c r="X184" s="8" t="n"/>
+      <c r="Y184" s="8" t="n"/>
+      <c r="Z184" s="8" t="n">
         <v>81536</v>
       </c>
     </row>
@@ -10899,6 +11286,8 @@
       <c r="X185" s="8" t="n">
         <v>10436608</v>
       </c>
+      <c r="Y185" s="8" t="n"/>
+      <c r="Z185" s="8" t="n"/>
     </row>
     <row r="186">
       <c r="A186" s="7" t="n">
@@ -10950,9 +11339,11 @@
         <v>50176</v>
       </c>
       <c r="W186" s="8" t="n"/>
-      <c r="X186" s="8" t="n">
+      <c r="X186" s="8" t="n"/>
+      <c r="Y186" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z186" s="8" t="n"/>
     </row>
     <row r="187">
       <c r="A187" s="7" t="n">
@@ -11002,7 +11393,9 @@
       <c r="W187" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X187" s="8" t="n">
+      <c r="X187" s="8" t="n"/>
+      <c r="Y187" s="8" t="n"/>
+      <c r="Z187" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -11071,6 +11464,8 @@
       <c r="X188" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y188" s="8" t="n"/>
+      <c r="Z188" s="8" t="n"/>
     </row>
     <row r="189">
       <c r="A189" s="7" t="n">
@@ -11119,6 +11514,8 @@
       <c r="V189" s="8" t="n"/>
       <c r="W189" s="8" t="n"/>
       <c r="X189" s="8" t="n"/>
+      <c r="Y189" s="8" t="n"/>
+      <c r="Z189" s="8" t="n"/>
     </row>
     <row r="190">
       <c r="A190" s="7" t="n">
@@ -11170,9 +11567,11 @@
         <v>175616</v>
       </c>
       <c r="W190" s="8" t="n"/>
-      <c r="X190" s="8" t="n">
+      <c r="X190" s="8" t="n"/>
+      <c r="Y190" s="8" t="n">
         <v>175616</v>
       </c>
+      <c r="Z190" s="8" t="n"/>
     </row>
     <row r="191">
       <c r="A191" s="7" t="n">
@@ -11222,7 +11621,9 @@
       <c r="W191" s="8" t="n">
         <v>87808</v>
       </c>
-      <c r="X191" s="8" t="n">
+      <c r="X191" s="8" t="n"/>
+      <c r="Y191" s="8" t="n"/>
+      <c r="Z191" s="8" t="n">
         <v>87808</v>
       </c>
     </row>
@@ -11291,6 +11692,8 @@
       <c r="X192" s="8" t="n">
         <v>11239424</v>
       </c>
+      <c r="Y192" s="8" t="n"/>
+      <c r="Z192" s="8" t="n"/>
     </row>
     <row r="193">
       <c r="A193" s="7" t="n">
@@ -11342,9 +11745,11 @@
         <v>50176</v>
       </c>
       <c r="W193" s="8" t="n"/>
-      <c r="X193" s="8" t="n">
+      <c r="X193" s="8" t="n"/>
+      <c r="Y193" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z193" s="8" t="n"/>
     </row>
     <row r="194">
       <c r="A194" s="7" t="n">
@@ -11394,7 +11799,9 @@
       <c r="W194" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X194" s="8" t="n">
+      <c r="X194" s="8" t="n"/>
+      <c r="Y194" s="8" t="n"/>
+      <c r="Z194" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -11463,6 +11870,8 @@
       <c r="X195" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y195" s="8" t="n"/>
+      <c r="Z195" s="8" t="n"/>
     </row>
     <row r="196">
       <c r="A196" s="7" t="n">
@@ -11511,6 +11920,8 @@
       <c r="V196" s="8" t="n"/>
       <c r="W196" s="8" t="n"/>
       <c r="X196" s="8" t="n"/>
+      <c r="Y196" s="8" t="n"/>
+      <c r="Z196" s="8" t="n"/>
     </row>
     <row r="197">
       <c r="A197" s="7" t="n">
@@ -11562,9 +11973,11 @@
         <v>188160</v>
       </c>
       <c r="W197" s="8" t="n"/>
-      <c r="X197" s="8" t="n">
+      <c r="X197" s="8" t="n"/>
+      <c r="Y197" s="8" t="n">
         <v>188160</v>
       </c>
+      <c r="Z197" s="8" t="n"/>
     </row>
     <row r="198">
       <c r="A198" s="7" t="n">
@@ -11614,7 +12027,9 @@
       <c r="W198" s="8" t="n">
         <v>94080</v>
       </c>
-      <c r="X198" s="8" t="n">
+      <c r="X198" s="8" t="n"/>
+      <c r="Y198" s="8" t="n"/>
+      <c r="Z198" s="8" t="n">
         <v>94080</v>
       </c>
     </row>
@@ -11683,6 +12098,8 @@
       <c r="X199" s="8" t="n">
         <v>12042240</v>
       </c>
+      <c r="Y199" s="8" t="n"/>
+      <c r="Z199" s="8" t="n"/>
     </row>
     <row r="200">
       <c r="A200" s="7" t="n">
@@ -11734,9 +12151,11 @@
         <v>50176</v>
       </c>
       <c r="W200" s="8" t="n"/>
-      <c r="X200" s="8" t="n">
+      <c r="X200" s="8" t="n"/>
+      <c r="Y200" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z200" s="8" t="n"/>
     </row>
     <row r="201">
       <c r="A201" s="7" t="n">
@@ -11786,7 +12205,9 @@
       <c r="W201" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X201" s="8" t="n">
+      <c r="X201" s="8" t="n"/>
+      <c r="Y201" s="8" t="n"/>
+      <c r="Z201" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -11855,6 +12276,8 @@
       <c r="X202" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y202" s="8" t="n"/>
+      <c r="Z202" s="8" t="n"/>
     </row>
     <row r="203">
       <c r="A203" s="7" t="n">
@@ -11903,6 +12326,8 @@
       <c r="V203" s="8" t="n"/>
       <c r="W203" s="8" t="n"/>
       <c r="X203" s="8" t="n"/>
+      <c r="Y203" s="8" t="n"/>
+      <c r="Z203" s="8" t="n"/>
     </row>
     <row r="204">
       <c r="A204" s="7" t="n">
@@ -11954,9 +12379,11 @@
         <v>200704</v>
       </c>
       <c r="W204" s="8" t="n"/>
-      <c r="X204" s="8" t="n">
+      <c r="X204" s="8" t="n"/>
+      <c r="Y204" s="8" t="n">
         <v>200704</v>
       </c>
+      <c r="Z204" s="8" t="n"/>
     </row>
     <row r="205">
       <c r="A205" s="7" t="n">
@@ -12006,7 +12433,9 @@
       <c r="W205" s="8" t="n">
         <v>100352</v>
       </c>
-      <c r="X205" s="8" t="n">
+      <c r="X205" s="8" t="n"/>
+      <c r="Y205" s="8" t="n"/>
+      <c r="Z205" s="8" t="n">
         <v>100352</v>
       </c>
     </row>
@@ -12075,6 +12504,8 @@
       <c r="X206" s="8" t="n">
         <v>12845056</v>
       </c>
+      <c r="Y206" s="8" t="n"/>
+      <c r="Z206" s="8" t="n"/>
     </row>
     <row r="207">
       <c r="A207" s="7" t="n">
@@ -12126,9 +12557,11 @@
         <v>50176</v>
       </c>
       <c r="W207" s="8" t="n"/>
-      <c r="X207" s="8" t="n">
+      <c r="X207" s="8" t="n"/>
+      <c r="Y207" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z207" s="8" t="n"/>
     </row>
     <row r="208">
       <c r="A208" s="7" t="n">
@@ -12178,7 +12611,9 @@
       <c r="W208" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X208" s="8" t="n">
+      <c r="X208" s="8" t="n"/>
+      <c r="Y208" s="8" t="n"/>
+      <c r="Z208" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -12247,6 +12682,8 @@
       <c r="X209" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y209" s="8" t="n"/>
+      <c r="Z209" s="8" t="n"/>
     </row>
     <row r="210">
       <c r="A210" s="7" t="n">
@@ -12295,6 +12732,8 @@
       <c r="V210" s="8" t="n"/>
       <c r="W210" s="8" t="n"/>
       <c r="X210" s="8" t="n"/>
+      <c r="Y210" s="8" t="n"/>
+      <c r="Z210" s="8" t="n"/>
     </row>
     <row r="211">
       <c r="A211" s="7" t="n">
@@ -12346,9 +12785,11 @@
         <v>213248</v>
       </c>
       <c r="W211" s="8" t="n"/>
-      <c r="X211" s="8" t="n">
+      <c r="X211" s="8" t="n"/>
+      <c r="Y211" s="8" t="n">
         <v>213248</v>
       </c>
+      <c r="Z211" s="8" t="n"/>
     </row>
     <row r="212">
       <c r="A212" s="7" t="n">
@@ -12398,7 +12839,9 @@
       <c r="W212" s="8" t="n">
         <v>106624</v>
       </c>
-      <c r="X212" s="8" t="n">
+      <c r="X212" s="8" t="n"/>
+      <c r="Y212" s="8" t="n"/>
+      <c r="Z212" s="8" t="n">
         <v>106624</v>
       </c>
     </row>
@@ -12467,6 +12910,8 @@
       <c r="X213" s="8" t="n">
         <v>13647872</v>
       </c>
+      <c r="Y213" s="8" t="n"/>
+      <c r="Z213" s="8" t="n"/>
     </row>
     <row r="214">
       <c r="A214" s="7" t="n">
@@ -12518,9 +12963,11 @@
         <v>50176</v>
       </c>
       <c r="W214" s="8" t="n"/>
-      <c r="X214" s="8" t="n">
+      <c r="X214" s="8" t="n"/>
+      <c r="Y214" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z214" s="8" t="n"/>
     </row>
     <row r="215">
       <c r="A215" s="7" t="n">
@@ -12570,7 +13017,9 @@
       <c r="W215" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X215" s="8" t="n">
+      <c r="X215" s="8" t="n"/>
+      <c r="Y215" s="8" t="n"/>
+      <c r="Z215" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -12639,6 +13088,8 @@
       <c r="X216" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y216" s="8" t="n"/>
+      <c r="Z216" s="8" t="n"/>
     </row>
     <row r="217">
       <c r="A217" s="7" t="n">
@@ -12687,6 +13138,8 @@
       <c r="V217" s="8" t="n"/>
       <c r="W217" s="8" t="n"/>
       <c r="X217" s="8" t="n"/>
+      <c r="Y217" s="8" t="n"/>
+      <c r="Z217" s="8" t="n"/>
     </row>
     <row r="218">
       <c r="A218" s="7" t="n">
@@ -12738,9 +13191,11 @@
         <v>225792</v>
       </c>
       <c r="W218" s="8" t="n"/>
-      <c r="X218" s="8" t="n">
+      <c r="X218" s="8" t="n"/>
+      <c r="Y218" s="8" t="n">
         <v>225792</v>
       </c>
+      <c r="Z218" s="8" t="n"/>
     </row>
     <row r="219">
       <c r="A219" s="7" t="n">
@@ -12790,7 +13245,9 @@
       <c r="W219" s="8" t="n">
         <v>112896</v>
       </c>
-      <c r="X219" s="8" t="n">
+      <c r="X219" s="8" t="n"/>
+      <c r="Y219" s="8" t="n"/>
+      <c r="Z219" s="8" t="n">
         <v>112896</v>
       </c>
     </row>
@@ -12859,6 +13316,8 @@
       <c r="X220" s="8" t="n">
         <v>14450688</v>
       </c>
+      <c r="Y220" s="8" t="n"/>
+      <c r="Z220" s="8" t="n"/>
     </row>
     <row r="221">
       <c r="A221" s="7" t="n">
@@ -12910,9 +13369,11 @@
         <v>50176</v>
       </c>
       <c r="W221" s="8" t="n"/>
-      <c r="X221" s="8" t="n">
+      <c r="X221" s="8" t="n"/>
+      <c r="Y221" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z221" s="8" t="n"/>
     </row>
     <row r="222">
       <c r="A222" s="7" t="n">
@@ -12962,7 +13423,9 @@
       <c r="W222" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X222" s="8" t="n">
+      <c r="X222" s="8" t="n"/>
+      <c r="Y222" s="8" t="n"/>
+      <c r="Z222" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -13031,6 +13494,8 @@
       <c r="X223" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y223" s="8" t="n"/>
+      <c r="Z223" s="8" t="n"/>
     </row>
     <row r="224">
       <c r="A224" s="7" t="n">
@@ -13079,6 +13544,8 @@
       <c r="V224" s="8" t="n"/>
       <c r="W224" s="8" t="n"/>
       <c r="X224" s="8" t="n"/>
+      <c r="Y224" s="8" t="n"/>
+      <c r="Z224" s="8" t="n"/>
     </row>
     <row r="225">
       <c r="A225" s="7" t="n">
@@ -13130,9 +13597,11 @@
         <v>238336</v>
       </c>
       <c r="W225" s="8" t="n"/>
-      <c r="X225" s="8" t="n">
+      <c r="X225" s="8" t="n"/>
+      <c r="Y225" s="8" t="n">
         <v>238336</v>
       </c>
+      <c r="Z225" s="8" t="n"/>
     </row>
     <row r="226">
       <c r="A226" s="7" t="n">
@@ -13182,7 +13651,9 @@
       <c r="W226" s="8" t="n">
         <v>119168</v>
       </c>
-      <c r="X226" s="8" t="n">
+      <c r="X226" s="8" t="n"/>
+      <c r="Y226" s="8" t="n"/>
+      <c r="Z226" s="8" t="n">
         <v>119168</v>
       </c>
     </row>
@@ -13251,6 +13722,8 @@
       <c r="X227" s="8" t="n">
         <v>15253504</v>
       </c>
+      <c r="Y227" s="8" t="n"/>
+      <c r="Z227" s="8" t="n"/>
     </row>
     <row r="228">
       <c r="A228" s="7" t="n">
@@ -13302,9 +13775,11 @@
         <v>50176</v>
       </c>
       <c r="W228" s="8" t="n"/>
-      <c r="X228" s="8" t="n">
+      <c r="X228" s="8" t="n"/>
+      <c r="Y228" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z228" s="8" t="n"/>
     </row>
     <row r="229">
       <c r="A229" s="7" t="n">
@@ -13354,7 +13829,9 @@
       <c r="W229" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X229" s="8" t="n">
+      <c r="X229" s="8" t="n"/>
+      <c r="Y229" s="8" t="n"/>
+      <c r="Z229" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -13423,6 +13900,8 @@
       <c r="X230" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y230" s="8" t="n"/>
+      <c r="Z230" s="8" t="n"/>
     </row>
     <row r="231">
       <c r="A231" s="7" t="n">
@@ -13471,6 +13950,8 @@
       <c r="V231" s="8" t="n"/>
       <c r="W231" s="8" t="n"/>
       <c r="X231" s="8" t="n"/>
+      <c r="Y231" s="8" t="n"/>
+      <c r="Z231" s="8" t="n"/>
     </row>
     <row r="232">
       <c r="A232" s="7" t="n">
@@ -13522,9 +14003,11 @@
         <v>250880</v>
       </c>
       <c r="W232" s="8" t="n"/>
-      <c r="X232" s="8" t="n">
+      <c r="X232" s="8" t="n"/>
+      <c r="Y232" s="8" t="n">
         <v>250880</v>
       </c>
+      <c r="Z232" s="8" t="n"/>
     </row>
     <row r="233">
       <c r="A233" s="7" t="n">
@@ -13574,7 +14057,9 @@
       <c r="W233" s="8" t="n">
         <v>125440</v>
       </c>
-      <c r="X233" s="8" t="n">
+      <c r="X233" s="8" t="n"/>
+      <c r="Y233" s="8" t="n"/>
+      <c r="Z233" s="8" t="n">
         <v>125440</v>
       </c>
     </row>
@@ -13643,6 +14128,8 @@
       <c r="X234" s="8" t="n">
         <v>16056320</v>
       </c>
+      <c r="Y234" s="8" t="n"/>
+      <c r="Z234" s="8" t="n"/>
     </row>
     <row r="235">
       <c r="A235" s="7" t="n">
@@ -13694,9 +14181,11 @@
         <v>50176</v>
       </c>
       <c r="W235" s="8" t="n"/>
-      <c r="X235" s="8" t="n">
+      <c r="X235" s="8" t="n"/>
+      <c r="Y235" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z235" s="8" t="n"/>
     </row>
     <row r="236">
       <c r="A236" s="7" t="n">
@@ -13746,7 +14235,9 @@
       <c r="W236" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X236" s="8" t="n">
+      <c r="X236" s="8" t="n"/>
+      <c r="Y236" s="8" t="n"/>
+      <c r="Z236" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -13815,6 +14306,8 @@
       <c r="X237" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y237" s="8" t="n"/>
+      <c r="Z237" s="8" t="n"/>
     </row>
     <row r="238">
       <c r="A238" s="7" t="n">
@@ -13863,6 +14356,8 @@
       <c r="V238" s="8" t="n"/>
       <c r="W238" s="8" t="n"/>
       <c r="X238" s="8" t="n"/>
+      <c r="Y238" s="8" t="n"/>
+      <c r="Z238" s="8" t="n"/>
     </row>
     <row r="239">
       <c r="A239" s="7" t="n">
@@ -13914,9 +14409,11 @@
         <v>263424</v>
       </c>
       <c r="W239" s="8" t="n"/>
-      <c r="X239" s="8" t="n">
+      <c r="X239" s="8" t="n"/>
+      <c r="Y239" s="8" t="n">
         <v>263424</v>
       </c>
+      <c r="Z239" s="8" t="n"/>
     </row>
     <row r="240">
       <c r="A240" s="7" t="n">
@@ -13966,7 +14463,9 @@
       <c r="W240" s="8" t="n">
         <v>131712</v>
       </c>
-      <c r="X240" s="8" t="n">
+      <c r="X240" s="8" t="n"/>
+      <c r="Y240" s="8" t="n"/>
+      <c r="Z240" s="8" t="n">
         <v>131712</v>
       </c>
     </row>
@@ -14035,6 +14534,8 @@
       <c r="X241" s="8" t="n">
         <v>16859136</v>
       </c>
+      <c r="Y241" s="8" t="n"/>
+      <c r="Z241" s="8" t="n"/>
     </row>
     <row r="242">
       <c r="A242" s="7" t="n">
@@ -14086,9 +14587,11 @@
         <v>50176</v>
       </c>
       <c r="W242" s="8" t="n"/>
-      <c r="X242" s="8" t="n">
+      <c r="X242" s="8" t="n"/>
+      <c r="Y242" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z242" s="8" t="n"/>
     </row>
     <row r="243">
       <c r="A243" s="7" t="n">
@@ -14138,7 +14641,9 @@
       <c r="W243" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X243" s="8" t="n">
+      <c r="X243" s="8" t="n"/>
+      <c r="Y243" s="8" t="n"/>
+      <c r="Z243" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -14207,6 +14712,8 @@
       <c r="X244" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y244" s="8" t="n"/>
+      <c r="Z244" s="8" t="n"/>
     </row>
     <row r="245">
       <c r="A245" s="7" t="n">
@@ -14255,6 +14762,8 @@
       <c r="V245" s="8" t="n"/>
       <c r="W245" s="8" t="n"/>
       <c r="X245" s="8" t="n"/>
+      <c r="Y245" s="8" t="n"/>
+      <c r="Z245" s="8" t="n"/>
     </row>
     <row r="246">
       <c r="A246" s="7" t="n">
@@ -14306,9 +14815,11 @@
         <v>275968</v>
       </c>
       <c r="W246" s="8" t="n"/>
-      <c r="X246" s="8" t="n">
+      <c r="X246" s="8" t="n"/>
+      <c r="Y246" s="8" t="n">
         <v>275968</v>
       </c>
+      <c r="Z246" s="8" t="n"/>
     </row>
     <row r="247">
       <c r="A247" s="7" t="n">
@@ -14358,7 +14869,9 @@
       <c r="W247" s="8" t="n">
         <v>137984</v>
       </c>
-      <c r="X247" s="8" t="n">
+      <c r="X247" s="8" t="n"/>
+      <c r="Y247" s="8" t="n"/>
+      <c r="Z247" s="8" t="n">
         <v>137984</v>
       </c>
     </row>
@@ -14427,6 +14940,8 @@
       <c r="X248" s="8" t="n">
         <v>17661952</v>
       </c>
+      <c r="Y248" s="8" t="n"/>
+      <c r="Z248" s="8" t="n"/>
     </row>
     <row r="249">
       <c r="A249" s="7" t="n">
@@ -14478,9 +14993,11 @@
         <v>50176</v>
       </c>
       <c r="W249" s="8" t="n"/>
-      <c r="X249" s="8" t="n">
+      <c r="X249" s="8" t="n"/>
+      <c r="Y249" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z249" s="8" t="n"/>
     </row>
     <row r="250">
       <c r="A250" s="7" t="n">
@@ -14530,7 +15047,9 @@
       <c r="W250" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X250" s="8" t="n">
+      <c r="X250" s="8" t="n"/>
+      <c r="Y250" s="8" t="n"/>
+      <c r="Z250" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -14599,6 +15118,8 @@
       <c r="X251" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y251" s="8" t="n"/>
+      <c r="Z251" s="8" t="n"/>
     </row>
     <row r="252">
       <c r="A252" s="7" t="n">
@@ -14647,6 +15168,8 @@
       <c r="V252" s="8" t="n"/>
       <c r="W252" s="8" t="n"/>
       <c r="X252" s="8" t="n"/>
+      <c r="Y252" s="8" t="n"/>
+      <c r="Z252" s="8" t="n"/>
     </row>
     <row r="253">
       <c r="A253" s="7" t="n">
@@ -14698,9 +15221,11 @@
         <v>288512</v>
       </c>
       <c r="W253" s="8" t="n"/>
-      <c r="X253" s="8" t="n">
+      <c r="X253" s="8" t="n"/>
+      <c r="Y253" s="8" t="n">
         <v>288512</v>
       </c>
+      <c r="Z253" s="8" t="n"/>
     </row>
     <row r="254">
       <c r="A254" s="7" t="n">
@@ -14750,7 +15275,9 @@
       <c r="W254" s="8" t="n">
         <v>144256</v>
       </c>
-      <c r="X254" s="8" t="n">
+      <c r="X254" s="8" t="n"/>
+      <c r="Y254" s="8" t="n"/>
+      <c r="Z254" s="8" t="n">
         <v>144256</v>
       </c>
     </row>
@@ -14819,6 +15346,8 @@
       <c r="X255" s="8" t="n">
         <v>18464768</v>
       </c>
+      <c r="Y255" s="8" t="n"/>
+      <c r="Z255" s="8" t="n"/>
     </row>
     <row r="256">
       <c r="A256" s="7" t="n">
@@ -14870,9 +15399,11 @@
         <v>50176</v>
       </c>
       <c r="W256" s="8" t="n"/>
-      <c r="X256" s="8" t="n">
+      <c r="X256" s="8" t="n"/>
+      <c r="Y256" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z256" s="8" t="n"/>
     </row>
     <row r="257">
       <c r="A257" s="7" t="n">
@@ -14922,7 +15453,9 @@
       <c r="W257" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X257" s="8" t="n">
+      <c r="X257" s="8" t="n"/>
+      <c r="Y257" s="8" t="n"/>
+      <c r="Z257" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -14991,6 +15524,8 @@
       <c r="X258" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y258" s="8" t="n"/>
+      <c r="Z258" s="8" t="n"/>
     </row>
     <row r="259">
       <c r="A259" s="7" t="n">
@@ -15039,6 +15574,8 @@
       <c r="V259" s="8" t="n"/>
       <c r="W259" s="8" t="n"/>
       <c r="X259" s="8" t="n"/>
+      <c r="Y259" s="8" t="n"/>
+      <c r="Z259" s="8" t="n"/>
     </row>
     <row r="260">
       <c r="A260" s="7" t="n">
@@ -15090,9 +15627,11 @@
         <v>301056</v>
       </c>
       <c r="W260" s="8" t="n"/>
-      <c r="X260" s="8" t="n">
+      <c r="X260" s="8" t="n"/>
+      <c r="Y260" s="8" t="n">
         <v>301056</v>
       </c>
+      <c r="Z260" s="8" t="n"/>
     </row>
     <row r="261">
       <c r="A261" s="7" t="n">
@@ -15142,7 +15681,9 @@
       <c r="W261" s="8" t="n">
         <v>150528</v>
       </c>
-      <c r="X261" s="8" t="n">
+      <c r="X261" s="8" t="n"/>
+      <c r="Y261" s="8" t="n"/>
+      <c r="Z261" s="8" t="n">
         <v>150528</v>
       </c>
     </row>
@@ -15211,6 +15752,8 @@
       <c r="X262" s="8" t="n">
         <v>19267584</v>
       </c>
+      <c r="Y262" s="8" t="n"/>
+      <c r="Z262" s="8" t="n"/>
     </row>
     <row r="263">
       <c r="A263" s="7" t="n">
@@ -15262,9 +15805,11 @@
         <v>50176</v>
       </c>
       <c r="W263" s="8" t="n"/>
-      <c r="X263" s="8" t="n">
+      <c r="X263" s="8" t="n"/>
+      <c r="Y263" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z263" s="8" t="n"/>
     </row>
     <row r="264">
       <c r="A264" s="7" t="n">
@@ -15314,7 +15859,9 @@
       <c r="W264" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X264" s="8" t="n">
+      <c r="X264" s="8" t="n"/>
+      <c r="Y264" s="8" t="n"/>
+      <c r="Z264" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -15383,6 +15930,8 @@
       <c r="X265" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y265" s="8" t="n"/>
+      <c r="Z265" s="8" t="n"/>
     </row>
     <row r="266">
       <c r="A266" s="7" t="n">
@@ -15431,6 +15980,8 @@
       <c r="V266" s="8" t="n"/>
       <c r="W266" s="8" t="n"/>
       <c r="X266" s="8" t="n"/>
+      <c r="Y266" s="8" t="n"/>
+      <c r="Z266" s="8" t="n"/>
     </row>
     <row r="267">
       <c r="A267" s="7" t="n">
@@ -15482,9 +16033,11 @@
         <v>313600</v>
       </c>
       <c r="W267" s="8" t="n"/>
-      <c r="X267" s="8" t="n">
+      <c r="X267" s="8" t="n"/>
+      <c r="Y267" s="8" t="n">
         <v>313600</v>
       </c>
+      <c r="Z267" s="8" t="n"/>
     </row>
     <row r="268">
       <c r="A268" s="7" t="n">
@@ -15534,7 +16087,9 @@
       <c r="W268" s="8" t="n">
         <v>156800</v>
       </c>
-      <c r="X268" s="8" t="n">
+      <c r="X268" s="8" t="n"/>
+      <c r="Y268" s="8" t="n"/>
+      <c r="Z268" s="8" t="n">
         <v>156800</v>
       </c>
     </row>
@@ -15603,6 +16158,8 @@
       <c r="X269" s="8" t="n">
         <v>20070400</v>
       </c>
+      <c r="Y269" s="8" t="n"/>
+      <c r="Z269" s="8" t="n"/>
     </row>
     <row r="270">
       <c r="A270" s="7" t="n">
@@ -15654,9 +16211,11 @@
         <v>50176</v>
       </c>
       <c r="W270" s="8" t="n"/>
-      <c r="X270" s="8" t="n">
+      <c r="X270" s="8" t="n"/>
+      <c r="Y270" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z270" s="8" t="n"/>
     </row>
     <row r="271">
       <c r="A271" s="7" t="n">
@@ -15706,7 +16265,9 @@
       <c r="W271" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X271" s="8" t="n">
+      <c r="X271" s="8" t="n"/>
+      <c r="Y271" s="8" t="n"/>
+      <c r="Z271" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -15775,6 +16336,8 @@
       <c r="X272" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y272" s="8" t="n"/>
+      <c r="Z272" s="8" t="n"/>
     </row>
     <row r="273">
       <c r="A273" s="7" t="n">
@@ -15823,6 +16386,8 @@
       <c r="V273" s="8" t="n"/>
       <c r="W273" s="8" t="n"/>
       <c r="X273" s="8" t="n"/>
+      <c r="Y273" s="8" t="n"/>
+      <c r="Z273" s="8" t="n"/>
     </row>
     <row r="274">
       <c r="A274" s="7" t="n">
@@ -15874,9 +16439,11 @@
         <v>326144</v>
       </c>
       <c r="W274" s="8" t="n"/>
-      <c r="X274" s="8" t="n">
+      <c r="X274" s="8" t="n"/>
+      <c r="Y274" s="8" t="n">
         <v>326144</v>
       </c>
+      <c r="Z274" s="8" t="n"/>
     </row>
     <row r="275">
       <c r="A275" s="7" t="n">
@@ -15926,7 +16493,9 @@
       <c r="W275" s="8" t="n">
         <v>163072</v>
       </c>
-      <c r="X275" s="8" t="n">
+      <c r="X275" s="8" t="n"/>
+      <c r="Y275" s="8" t="n"/>
+      <c r="Z275" s="8" t="n">
         <v>163072</v>
       </c>
     </row>
@@ -15995,6 +16564,8 @@
       <c r="X276" s="8" t="n">
         <v>20873216</v>
       </c>
+      <c r="Y276" s="8" t="n"/>
+      <c r="Z276" s="8" t="n"/>
     </row>
     <row r="277">
       <c r="A277" s="7" t="n">
@@ -16046,9 +16617,11 @@
         <v>50176</v>
       </c>
       <c r="W277" s="8" t="n"/>
-      <c r="X277" s="8" t="n">
+      <c r="X277" s="8" t="n"/>
+      <c r="Y277" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z277" s="8" t="n"/>
     </row>
     <row r="278">
       <c r="A278" s="7" t="n">
@@ -16098,7 +16671,9 @@
       <c r="W278" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X278" s="8" t="n">
+      <c r="X278" s="8" t="n"/>
+      <c r="Y278" s="8" t="n"/>
+      <c r="Z278" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -16167,6 +16742,8 @@
       <c r="X279" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y279" s="8" t="n"/>
+      <c r="Z279" s="8" t="n"/>
     </row>
     <row r="280">
       <c r="A280" s="7" t="n">
@@ -16215,6 +16792,8 @@
       <c r="V280" s="8" t="n"/>
       <c r="W280" s="8" t="n"/>
       <c r="X280" s="8" t="n"/>
+      <c r="Y280" s="8" t="n"/>
+      <c r="Z280" s="8" t="n"/>
     </row>
     <row r="281">
       <c r="A281" s="7" t="n">
@@ -16266,9 +16845,11 @@
         <v>338688</v>
       </c>
       <c r="W281" s="8" t="n"/>
-      <c r="X281" s="8" t="n">
+      <c r="X281" s="8" t="n"/>
+      <c r="Y281" s="8" t="n">
         <v>338688</v>
       </c>
+      <c r="Z281" s="8" t="n"/>
     </row>
     <row r="282">
       <c r="A282" s="7" t="n">
@@ -16318,7 +16899,9 @@
       <c r="W282" s="8" t="n">
         <v>169344</v>
       </c>
-      <c r="X282" s="8" t="n">
+      <c r="X282" s="8" t="n"/>
+      <c r="Y282" s="8" t="n"/>
+      <c r="Z282" s="8" t="n">
         <v>169344</v>
       </c>
     </row>
@@ -16387,6 +16970,8 @@
       <c r="X283" s="8" t="n">
         <v>21676032</v>
       </c>
+      <c r="Y283" s="8" t="n"/>
+      <c r="Z283" s="8" t="n"/>
     </row>
     <row r="284">
       <c r="A284" s="7" t="n">
@@ -16438,9 +17023,11 @@
         <v>50176</v>
       </c>
       <c r="W284" s="8" t="n"/>
-      <c r="X284" s="8" t="n">
+      <c r="X284" s="8" t="n"/>
+      <c r="Y284" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z284" s="8" t="n"/>
     </row>
     <row r="285">
       <c r="A285" s="7" t="n">
@@ -16490,7 +17077,9 @@
       <c r="W285" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X285" s="8" t="n">
+      <c r="X285" s="8" t="n"/>
+      <c r="Y285" s="8" t="n"/>
+      <c r="Z285" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -16559,6 +17148,8 @@
       <c r="X286" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y286" s="8" t="n"/>
+      <c r="Z286" s="8" t="n"/>
     </row>
     <row r="287">
       <c r="A287" s="7" t="n">
@@ -16607,6 +17198,8 @@
       <c r="V287" s="8" t="n"/>
       <c r="W287" s="8" t="n"/>
       <c r="X287" s="8" t="n"/>
+      <c r="Y287" s="8" t="n"/>
+      <c r="Z287" s="8" t="n"/>
     </row>
     <row r="288">
       <c r="A288" s="7" t="n">
@@ -16658,9 +17251,11 @@
         <v>351232</v>
       </c>
       <c r="W288" s="8" t="n"/>
-      <c r="X288" s="8" t="n">
+      <c r="X288" s="8" t="n"/>
+      <c r="Y288" s="8" t="n">
         <v>351232</v>
       </c>
+      <c r="Z288" s="8" t="n"/>
     </row>
     <row r="289">
       <c r="A289" s="7" t="n">
@@ -16710,7 +17305,9 @@
       <c r="W289" s="8" t="n">
         <v>175616</v>
       </c>
-      <c r="X289" s="8" t="n">
+      <c r="X289" s="8" t="n"/>
+      <c r="Y289" s="8" t="n"/>
+      <c r="Z289" s="8" t="n">
         <v>175616</v>
       </c>
     </row>
@@ -16779,6 +17376,8 @@
       <c r="X290" s="8" t="n">
         <v>22478848</v>
       </c>
+      <c r="Y290" s="8" t="n"/>
+      <c r="Z290" s="8" t="n"/>
     </row>
     <row r="291">
       <c r="A291" s="7" t="n">
@@ -16830,9 +17429,11 @@
         <v>50176</v>
       </c>
       <c r="W291" s="8" t="n"/>
-      <c r="X291" s="8" t="n">
+      <c r="X291" s="8" t="n"/>
+      <c r="Y291" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z291" s="8" t="n"/>
     </row>
     <row r="292">
       <c r="A292" s="7" t="n">
@@ -16882,7 +17483,9 @@
       <c r="W292" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X292" s="8" t="n">
+      <c r="X292" s="8" t="n"/>
+      <c r="Y292" s="8" t="n"/>
+      <c r="Z292" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -16951,6 +17554,8 @@
       <c r="X293" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y293" s="8" t="n"/>
+      <c r="Z293" s="8" t="n"/>
     </row>
     <row r="294">
       <c r="A294" s="7" t="n">
@@ -16999,6 +17604,8 @@
       <c r="V294" s="8" t="n"/>
       <c r="W294" s="8" t="n"/>
       <c r="X294" s="8" t="n"/>
+      <c r="Y294" s="8" t="n"/>
+      <c r="Z294" s="8" t="n"/>
     </row>
     <row r="295">
       <c r="A295" s="7" t="n">
@@ -17050,9 +17657,11 @@
         <v>363776</v>
       </c>
       <c r="W295" s="8" t="n"/>
-      <c r="X295" s="8" t="n">
+      <c r="X295" s="8" t="n"/>
+      <c r="Y295" s="8" t="n">
         <v>363776</v>
       </c>
+      <c r="Z295" s="8" t="n"/>
     </row>
     <row r="296">
       <c r="A296" s="7" t="n">
@@ -17102,7 +17711,9 @@
       <c r="W296" s="8" t="n">
         <v>181888</v>
       </c>
-      <c r="X296" s="8" t="n">
+      <c r="X296" s="8" t="n"/>
+      <c r="Y296" s="8" t="n"/>
+      <c r="Z296" s="8" t="n">
         <v>181888</v>
       </c>
     </row>
@@ -17171,6 +17782,8 @@
       <c r="X297" s="8" t="n">
         <v>23281664</v>
       </c>
+      <c r="Y297" s="8" t="n"/>
+      <c r="Z297" s="8" t="n"/>
     </row>
     <row r="298">
       <c r="A298" s="7" t="n">
@@ -17222,9 +17835,11 @@
         <v>50176</v>
       </c>
       <c r="W298" s="8" t="n"/>
-      <c r="X298" s="8" t="n">
+      <c r="X298" s="8" t="n"/>
+      <c r="Y298" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z298" s="8" t="n"/>
     </row>
     <row r="299">
       <c r="A299" s="7" t="n">
@@ -17274,7 +17889,9 @@
       <c r="W299" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X299" s="8" t="n">
+      <c r="X299" s="8" t="n"/>
+      <c r="Y299" s="8" t="n"/>
+      <c r="Z299" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -17343,6 +17960,8 @@
       <c r="X300" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y300" s="8" t="n"/>
+      <c r="Z300" s="8" t="n"/>
     </row>
     <row r="301">
       <c r="A301" s="7" t="n">
@@ -17391,6 +18010,8 @@
       <c r="V301" s="8" t="n"/>
       <c r="W301" s="8" t="n"/>
       <c r="X301" s="8" t="n"/>
+      <c r="Y301" s="8" t="n"/>
+      <c r="Z301" s="8" t="n"/>
     </row>
     <row r="302">
       <c r="A302" s="7" t="n">
@@ -17442,9 +18063,11 @@
         <v>376320</v>
       </c>
       <c r="W302" s="8" t="n"/>
-      <c r="X302" s="8" t="n">
+      <c r="X302" s="8" t="n"/>
+      <c r="Y302" s="8" t="n">
         <v>376320</v>
       </c>
+      <c r="Z302" s="8" t="n"/>
     </row>
     <row r="303">
       <c r="A303" s="7" t="n">
@@ -17494,7 +18117,9 @@
       <c r="W303" s="8" t="n">
         <v>188160</v>
       </c>
-      <c r="X303" s="8" t="n">
+      <c r="X303" s="8" t="n"/>
+      <c r="Y303" s="8" t="n"/>
+      <c r="Z303" s="8" t="n">
         <v>188160</v>
       </c>
     </row>
@@ -17563,6 +18188,8 @@
       <c r="X304" s="8" t="n">
         <v>24084480</v>
       </c>
+      <c r="Y304" s="8" t="n"/>
+      <c r="Z304" s="8" t="n"/>
     </row>
     <row r="305">
       <c r="A305" s="7" t="n">
@@ -17614,9 +18241,11 @@
         <v>50176</v>
       </c>
       <c r="W305" s="8" t="n"/>
-      <c r="X305" s="8" t="n">
+      <c r="X305" s="8" t="n"/>
+      <c r="Y305" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z305" s="8" t="n"/>
     </row>
     <row r="306">
       <c r="A306" s="7" t="n">
@@ -17666,7 +18295,9 @@
       <c r="W306" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X306" s="8" t="n">
+      <c r="X306" s="8" t="n"/>
+      <c r="Y306" s="8" t="n"/>
+      <c r="Z306" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -17735,6 +18366,8 @@
       <c r="X307" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y307" s="8" t="n"/>
+      <c r="Z307" s="8" t="n"/>
     </row>
     <row r="308">
       <c r="A308" s="7" t="n">
@@ -17783,6 +18416,8 @@
       <c r="V308" s="8" t="n"/>
       <c r="W308" s="8" t="n"/>
       <c r="X308" s="8" t="n"/>
+      <c r="Y308" s="8" t="n"/>
+      <c r="Z308" s="8" t="n"/>
     </row>
     <row r="309">
       <c r="A309" s="7" t="n">
@@ -17834,9 +18469,11 @@
         <v>388864</v>
       </c>
       <c r="W309" s="8" t="n"/>
-      <c r="X309" s="8" t="n">
+      <c r="X309" s="8" t="n"/>
+      <c r="Y309" s="8" t="n">
         <v>388864</v>
       </c>
+      <c r="Z309" s="8" t="n"/>
     </row>
     <row r="310">
       <c r="A310" s="7" t="n">
@@ -17886,7 +18523,9 @@
       <c r="W310" s="8" t="n">
         <v>194432</v>
       </c>
-      <c r="X310" s="8" t="n">
+      <c r="X310" s="8" t="n"/>
+      <c r="Y310" s="8" t="n"/>
+      <c r="Z310" s="8" t="n">
         <v>194432</v>
       </c>
     </row>
@@ -17955,6 +18594,8 @@
       <c r="X311" s="8" t="n">
         <v>24887296</v>
       </c>
+      <c r="Y311" s="8" t="n"/>
+      <c r="Z311" s="8" t="n"/>
     </row>
     <row r="312">
       <c r="A312" s="7" t="n">
@@ -18006,9 +18647,11 @@
         <v>50176</v>
       </c>
       <c r="W312" s="8" t="n"/>
-      <c r="X312" s="8" t="n">
+      <c r="X312" s="8" t="n"/>
+      <c r="Y312" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z312" s="8" t="n"/>
     </row>
     <row r="313">
       <c r="A313" s="7" t="n">
@@ -18058,7 +18701,9 @@
       <c r="W313" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X313" s="8" t="n">
+      <c r="X313" s="8" t="n"/>
+      <c r="Y313" s="8" t="n"/>
+      <c r="Z313" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -18127,6 +18772,8 @@
       <c r="X314" s="8" t="n">
         <v>7225344</v>
       </c>
+      <c r="Y314" s="8" t="n"/>
+      <c r="Z314" s="8" t="n"/>
     </row>
     <row r="315">
       <c r="A315" s="7" t="n">
@@ -18175,6 +18822,8 @@
       <c r="V315" s="8" t="n"/>
       <c r="W315" s="8" t="n"/>
       <c r="X315" s="8" t="n"/>
+      <c r="Y315" s="8" t="n"/>
+      <c r="Z315" s="8" t="n"/>
     </row>
     <row r="316">
       <c r="A316" s="7" t="n">
@@ -18226,9 +18875,11 @@
         <v>401408</v>
       </c>
       <c r="W316" s="8" t="n"/>
-      <c r="X316" s="8" t="n">
+      <c r="X316" s="8" t="n"/>
+      <c r="Y316" s="8" t="n">
         <v>401408</v>
       </c>
+      <c r="Z316" s="8" t="n"/>
     </row>
     <row r="317">
       <c r="A317" s="7" t="n">
@@ -18278,7 +18929,9 @@
       <c r="W317" s="8" t="n">
         <v>200704</v>
       </c>
-      <c r="X317" s="8" t="n">
+      <c r="X317" s="8" t="n"/>
+      <c r="Y317" s="8" t="n"/>
+      <c r="Z317" s="8" t="n">
         <v>200704</v>
       </c>
     </row>
@@ -18347,6 +19000,8 @@
       <c r="X318" s="8" t="n">
         <v>102760448</v>
       </c>
+      <c r="Y318" s="8" t="n"/>
+      <c r="Z318" s="8" t="n"/>
     </row>
     <row r="319">
       <c r="A319" s="7" t="n">
@@ -18399,6 +19054,8 @@
       <c r="V319" s="8" t="n"/>
       <c r="W319" s="8" t="n"/>
       <c r="X319" s="8" t="n"/>
+      <c r="Y319" s="8" t="n"/>
+      <c r="Z319" s="8" t="n"/>
     </row>
     <row r="320">
       <c r="A320" s="7" t="n">
@@ -18447,6 +19104,8 @@
       <c r="V320" s="8" t="n"/>
       <c r="W320" s="8" t="n"/>
       <c r="X320" s="8" t="n"/>
+      <c r="Y320" s="8" t="n"/>
+      <c r="Z320" s="8" t="n"/>
     </row>
     <row r="321">
       <c r="A321" s="7" t="n">
@@ -18495,6 +19154,8 @@
       <c r="V321" s="8" t="n"/>
       <c r="W321" s="8" t="n"/>
       <c r="X321" s="8" t="n"/>
+      <c r="Y321" s="8" t="n"/>
+      <c r="Z321" s="8" t="n"/>
     </row>
     <row r="322">
       <c r="A322" s="7" t="n">
@@ -18546,9 +19207,11 @@
         <v>50176</v>
       </c>
       <c r="W322" s="8" t="n"/>
-      <c r="X322" s="8" t="n">
+      <c r="X322" s="8" t="n"/>
+      <c r="Y322" s="8" t="n">
         <v>50176</v>
       </c>
+      <c r="Z322" s="8" t="n"/>
     </row>
     <row r="323">
       <c r="A323" s="7" t="n">
@@ -18598,7 +19261,9 @@
       <c r="W323" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="X323" s="8" t="n">
+      <c r="X323" s="8" t="n"/>
+      <c r="Y323" s="8" t="n"/>
+      <c r="Z323" s="8" t="n">
         <v>25088</v>
       </c>
     </row>
@@ -18667,6 +19332,8 @@
       <c r="X324" s="8" t="n">
         <v>3211264</v>
       </c>
+      <c r="Y324" s="8" t="n"/>
+      <c r="Z324" s="8" t="n"/>
     </row>
     <row r="325">
       <c r="A325" s="7" t="n">
@@ -18718,9 +19385,11 @@
         <v>12544</v>
       </c>
       <c r="W325" s="8" t="n"/>
-      <c r="X325" s="8" t="n">
+      <c r="X325" s="8" t="n"/>
+      <c r="Y325" s="8" t="n">
         <v>12544</v>
       </c>
+      <c r="Z325" s="8" t="n"/>
     </row>
     <row r="326">
       <c r="A326" s="7" t="n">
@@ -18770,7 +19439,9 @@
       <c r="W326" s="8" t="n">
         <v>6272</v>
       </c>
-      <c r="X326" s="8" t="n">
+      <c r="X326" s="8" t="n"/>
+      <c r="Y326" s="8" t="n"/>
+      <c r="Z326" s="8" t="n">
         <v>6272</v>
       </c>
     </row>
@@ -18839,6 +19510,8 @@
       <c r="X327" s="8" t="n">
         <v>1806336</v>
       </c>
+      <c r="Y327" s="8" t="n"/>
+      <c r="Z327" s="8" t="n"/>
     </row>
     <row r="328">
       <c r="A328" s="7" t="n">
@@ -18887,6 +19560,8 @@
       <c r="V328" s="8" t="n"/>
       <c r="W328" s="8" t="n"/>
       <c r="X328" s="8" t="n"/>
+      <c r="Y328" s="8" t="n"/>
+      <c r="Z328" s="8" t="n"/>
     </row>
     <row r="329">
       <c r="A329" s="7" t="n">
@@ -18938,9 +19613,11 @@
         <v>53312</v>
       </c>
       <c r="W329" s="8" t="n"/>
-      <c r="X329" s="8" t="n">
+      <c r="X329" s="8" t="n"/>
+      <c r="Y329" s="8" t="n">
         <v>53312</v>
       </c>
+      <c r="Z329" s="8" t="n"/>
     </row>
     <row r="330">
       <c r="A330" s="7" t="n">
@@ -18990,7 +19667,9 @@
       <c r="W330" s="8" t="n">
         <v>26656</v>
       </c>
-      <c r="X330" s="8" t="n">
+      <c r="X330" s="8" t="n"/>
+      <c r="Y330" s="8" t="n"/>
+      <c r="Z330" s="8" t="n">
         <v>26656</v>
       </c>
     </row>
@@ -19059,6 +19738,8 @@
       <c r="X331" s="8" t="n">
         <v>3411968</v>
       </c>
+      <c r="Y331" s="8" t="n"/>
+      <c r="Z331" s="8" t="n"/>
     </row>
     <row r="332">
       <c r="A332" s="7" t="n">
@@ -19110,9 +19791,11 @@
         <v>12544</v>
       </c>
       <c r="W332" s="8" t="n"/>
-      <c r="X332" s="8" t="n">
+      <c r="X332" s="8" t="n"/>
+      <c r="Y332" s="8" t="n">
         <v>12544</v>
       </c>
+      <c r="Z332" s="8" t="n"/>
     </row>
     <row r="333">
       <c r="A333" s="7" t="n">
@@ -19162,7 +19845,9 @@
       <c r="W333" s="8" t="n">
         <v>6272</v>
       </c>
-      <c r="X333" s="8" t="n">
+      <c r="X333" s="8" t="n"/>
+      <c r="Y333" s="8" t="n"/>
+      <c r="Z333" s="8" t="n">
         <v>6272</v>
       </c>
     </row>
@@ -19231,6 +19916,8 @@
       <c r="X334" s="8" t="n">
         <v>1806336</v>
       </c>
+      <c r="Y334" s="8" t="n"/>
+      <c r="Z334" s="8" t="n"/>
     </row>
     <row r="335">
       <c r="A335" s="7" t="n">
@@ -19279,6 +19966,8 @@
       <c r="V335" s="8" t="n"/>
       <c r="W335" s="8" t="n"/>
       <c r="X335" s="8" t="n"/>
+      <c r="Y335" s="8" t="n"/>
+      <c r="Z335" s="8" t="n"/>
     </row>
     <row r="336">
       <c r="A336" s="7" t="n">
@@ -19330,9 +20019,11 @@
         <v>56448</v>
       </c>
       <c r="W336" s="8" t="n"/>
-      <c r="X336" s="8" t="n">
+      <c r="X336" s="8" t="n"/>
+      <c r="Y336" s="8" t="n">
         <v>56448</v>
       </c>
+      <c r="Z336" s="8" t="n"/>
     </row>
     <row r="337">
       <c r="A337" s="7" t="n">
@@ -19382,7 +20073,9 @@
       <c r="W337" s="8" t="n">
         <v>28224</v>
       </c>
-      <c r="X337" s="8" t="n">
+      <c r="X337" s="8" t="n"/>
+      <c r="Y337" s="8" t="n"/>
+      <c r="Z337" s="8" t="n">
         <v>28224</v>
       </c>
     </row>
@@ -19451,6 +20144,8 @@
       <c r="X338" s="8" t="n">
         <v>3612672</v>
       </c>
+      <c r="Y338" s="8" t="n"/>
+      <c r="Z338" s="8" t="n"/>
     </row>
     <row r="339">
       <c r="A339" s="7" t="n">
@@ -19502,9 +20197,11 @@
         <v>12544</v>
       </c>
       <c r="W339" s="8" t="n"/>
-      <c r="X339" s="8" t="n">
+      <c r="X339" s="8" t="n"/>
+      <c r="Y339" s="8" t="n">
         <v>12544</v>
       </c>
+      <c r="Z339" s="8" t="n"/>
     </row>
     <row r="340">
       <c r="A340" s="7" t="n">
@@ -19554,7 +20251,9 @@
       <c r="W340" s="8" t="n">
         <v>6272</v>
       </c>
-      <c r="X340" s="8" t="n">
+      <c r="X340" s="8" t="n"/>
+      <c r="Y340" s="8" t="n"/>
+      <c r="Z340" s="8" t="n">
         <v>6272</v>
       </c>
     </row>
@@ -19623,6 +20322,8 @@
       <c r="X341" s="8" t="n">
         <v>1806336</v>
       </c>
+      <c r="Y341" s="8" t="n"/>
+      <c r="Z341" s="8" t="n"/>
     </row>
     <row r="342">
       <c r="A342" s="7" t="n">
@@ -19671,6 +20372,8 @@
       <c r="V342" s="8" t="n"/>
       <c r="W342" s="8" t="n"/>
       <c r="X342" s="8" t="n"/>
+      <c r="Y342" s="8" t="n"/>
+      <c r="Z342" s="8" t="n"/>
     </row>
     <row r="343">
       <c r="A343" s="7" t="n">
@@ -19722,9 +20425,11 @@
         <v>59584</v>
       </c>
       <c r="W343" s="8" t="n"/>
-      <c r="X343" s="8" t="n">
+      <c r="X343" s="8" t="n"/>
+      <c r="Y343" s="8" t="n">
         <v>59584</v>
       </c>
+      <c r="Z343" s="8" t="n"/>
     </row>
     <row r="344">
       <c r="A344" s="7" t="n">
@@ -19774,7 +20479,9 @@
       <c r="W344" s="8" t="n">
         <v>29792</v>
       </c>
-      <c r="X344" s="8" t="n">
+      <c r="X344" s="8" t="n"/>
+      <c r="Y344" s="8" t="n"/>
+      <c r="Z344" s="8" t="n">
         <v>29792</v>
       </c>
     </row>
@@ -19843,6 +20550,8 @@
       <c r="X345" s="8" t="n">
         <v>3813376</v>
       </c>
+      <c r="Y345" s="8" t="n"/>
+      <c r="Z345" s="8" t="n"/>
     </row>
     <row r="346">
       <c r="A346" s="7" t="n">
@@ -19894,9 +20603,11 @@
         <v>12544</v>
       </c>
       <c r="W346" s="8" t="n"/>
-      <c r="X346" s="8" t="n">
+      <c r="X346" s="8" t="n"/>
+      <c r="Y346" s="8" t="n">
         <v>12544</v>
       </c>
+      <c r="Z346" s="8" t="n"/>
     </row>
     <row r="347">
       <c r="A347" s="7" t="n">
@@ -19946,7 +20657,9 @@
       <c r="W347" s="8" t="n">
         <v>6272</v>
       </c>
-      <c r="X347" s="8" t="n">
+      <c r="X347" s="8" t="n"/>
+      <c r="Y347" s="8" t="n"/>
+      <c r="Z347" s="8" t="n">
         <v>6272</v>
       </c>
     </row>
@@ -20015,6 +20728,8 @@
       <c r="X348" s="8" t="n">
         <v>1806336</v>
       </c>
+      <c r="Y348" s="8" t="n"/>
+      <c r="Z348" s="8" t="n"/>
     </row>
     <row r="349">
       <c r="A349" s="7" t="n">
@@ -20063,6 +20778,8 @@
       <c r="V349" s="8" t="n"/>
       <c r="W349" s="8" t="n"/>
       <c r="X349" s="8" t="n"/>
+      <c r="Y349" s="8" t="n"/>
+      <c r="Z349" s="8" t="n"/>
     </row>
     <row r="350">
       <c r="A350" s="7" t="n">
@@ -20114,9 +20831,11 @@
         <v>62720</v>
       </c>
       <c r="W350" s="8" t="n"/>
-      <c r="X350" s="8" t="n">
+      <c r="X350" s="8" t="n"/>
+      <c r="Y350" s="8" t="n">
         <v>62720</v>
       </c>
+      <c r="Z350" s="8" t="n"/>
     </row>
     <row r="351">
       <c r="A351" s="7" t="n">
@@ -20166,7 +20885,9 @@
       <c r="W351" s="8" t="n">
         <v>31360</v>
       </c>
-      <c r="X351" s="8" t="n">
+      <c r="X351" s="8" t="n"/>
+      <c r="Y351" s="8" t="n"/>
+      <c r="Z351" s="8" t="n">
         <v>31360</v>
       </c>
     </row>
@@ -20235,6 +20956,8 @@
       <c r="X352" s="8" t="n">
         <v>4014080</v>
       </c>
+      <c r="Y352" s="8" t="n"/>
+      <c r="Z352" s="8" t="n"/>
     </row>
     <row r="353">
       <c r="A353" s="7" t="n">
@@ -20286,9 +21009,11 @@
         <v>12544</v>
       </c>
       <c r="W353" s="8" t="n"/>
-      <c r="X353" s="8" t="n">
+      <c r="X353" s="8" t="n"/>
+      <c r="Y353" s="8" t="n">
         <v>12544</v>
       </c>
+      <c r="Z353" s="8" t="n"/>
     </row>
     <row r="354">
       <c r="A354" s="7" t="n">
@@ -20338,7 +21063,9 @@
       <c r="W354" s="8" t="n">
         <v>6272</v>
       </c>
-      <c r="X354" s="8" t="n">
+      <c r="X354" s="8" t="n"/>
+      <c r="Y354" s="8" t="n"/>
+      <c r="Z354" s="8" t="n">
         <v>6272</v>
       </c>
     </row>
@@ -20407,6 +21134,8 @@
       <c r="X355" s="8" t="n">
         <v>1806336</v>
       </c>
+      <c r="Y355" s="8" t="n"/>
+      <c r="Z355" s="8" t="n"/>
     </row>
     <row r="356">
       <c r="A356" s="7" t="n">
@@ -20455,6 +21184,8 @@
       <c r="V356" s="8" t="n"/>
       <c r="W356" s="8" t="n"/>
       <c r="X356" s="8" t="n"/>
+      <c r="Y356" s="8" t="n"/>
+      <c r="Z356" s="8" t="n"/>
     </row>
     <row r="357">
       <c r="A357" s="7" t="n">
@@ -20506,9 +21237,11 @@
         <v>65856</v>
       </c>
       <c r="W357" s="8" t="n"/>
-      <c r="X357" s="8" t="n">
+      <c r="X357" s="8" t="n"/>
+      <c r="Y357" s="8" t="n">
         <v>65856</v>
       </c>
+      <c r="Z357" s="8" t="n"/>
     </row>
     <row r="358">
       <c r="A358" s="7" t="n">
@@ -20558,7 +21291,9 @@
       <c r="W358" s="8" t="n">
         <v>32928</v>
       </c>
-      <c r="X358" s="8" t="n">
+      <c r="X358" s="8" t="n"/>
+      <c r="Y358" s="8" t="n"/>
+      <c r="Z358" s="8" t="n">
         <v>32928</v>
       </c>
     </row>
@@ -20627,6 +21362,8 @@
       <c r="X359" s="8" t="n">
         <v>4214784</v>
       </c>
+      <c r="Y359" s="8" t="n"/>
+      <c r="Z359" s="8" t="n"/>
     </row>
     <row r="360">
       <c r="A360" s="7" t="n">
@@ -20678,9 +21415,11 @@
         <v>12544</v>
       </c>
       <c r="W360" s="8" t="n"/>
-      <c r="X360" s="8" t="n">
+      <c r="X360" s="8" t="n"/>
+      <c r="Y360" s="8" t="n">
         <v>12544</v>
       </c>
+      <c r="Z360" s="8" t="n"/>
     </row>
     <row r="361">
       <c r="A361" s="7" t="n">
@@ -20730,7 +21469,9 @@
       <c r="W361" s="8" t="n">
         <v>6272</v>
       </c>
-      <c r="X361" s="8" t="n">
+      <c r="X361" s="8" t="n"/>
+      <c r="Y361" s="8" t="n"/>
+      <c r="Z361" s="8" t="n">
         <v>6272</v>
       </c>
     </row>
@@ -20799,6 +21540,8 @@
       <c r="X362" s="8" t="n">
         <v>1806336</v>
       </c>
+      <c r="Y362" s="8" t="n"/>
+      <c r="Z362" s="8" t="n"/>
     </row>
     <row r="363">
       <c r="A363" s="7" t="n">
@@ -20847,6 +21590,8 @@
       <c r="V363" s="8" t="n"/>
       <c r="W363" s="8" t="n"/>
       <c r="X363" s="8" t="n"/>
+      <c r="Y363" s="8" t="n"/>
+      <c r="Z363" s="8" t="n"/>
     </row>
     <row r="364">
       <c r="A364" s="7" t="n">
@@ -20898,9 +21643,11 @@
         <v>68992</v>
       </c>
       <c r="W364" s="8" t="n"/>
-      <c r="X364" s="8" t="n">
+      <c r="X364" s="8" t="n"/>
+      <c r="Y364" s="8" t="n">
         <v>68992</v>
       </c>
+      <c r="Z364" s="8" t="n"/>
     </row>
     <row r="365">
       <c r="A365" s="7" t="n">
@@ -20950,7 +21697,9 @@
       <c r="W365" s="8" t="n">
         <v>34496</v>
       </c>
-      <c r="X365" s="8" t="n">
+      <c r="X365" s="8" t="n"/>
+      <c r="Y365" s="8" t="n"/>
+      <c r="Z365" s="8" t="n">
         <v>34496</v>
       </c>
     </row>
@@ -21019,6 +21768,8 @@
       <c r="X366" s="8" t="n">
         <v>4415488</v>
       </c>
+      <c r="Y366" s="8" t="n"/>
+      <c r="Z366" s="8" t="n"/>
     </row>
     <row r="367">
       <c r="A367" s="7" t="n">
@@ -21070,9 +21821,11 @@
         <v>12544</v>
       </c>
       <c r="W367" s="8" t="n"/>
-      <c r="X367" s="8" t="n">
+      <c r="X367" s="8" t="n"/>
+      <c r="Y367" s="8" t="n">
         <v>12544</v>
       </c>
+      <c r="Z367" s="8" t="n"/>
     </row>
     <row r="368">
       <c r="A368" s="7" t="n">
@@ -21122,7 +21875,9 @@
       <c r="W368" s="8" t="n">
         <v>6272</v>
       </c>
-      <c r="X368" s="8" t="n">
+      <c r="X368" s="8" t="n"/>
+      <c r="Y368" s="8" t="n"/>
+      <c r="Z368" s="8" t="n">
         <v>6272</v>
       </c>
     </row>
@@ -21191,6 +21946,8 @@
       <c r="X369" s="8" t="n">
         <v>1806336</v>
       </c>
+      <c r="Y369" s="8" t="n"/>
+      <c r="Z369" s="8" t="n"/>
     </row>
     <row r="370">
       <c r="A370" s="7" t="n">
@@ -21239,6 +21996,8 @@
       <c r="V370" s="8" t="n"/>
       <c r="W370" s="8" t="n"/>
       <c r="X370" s="8" t="n"/>
+      <c r="Y370" s="8" t="n"/>
+      <c r="Z370" s="8" t="n"/>
     </row>
     <row r="371">
       <c r="A371" s="7" t="n">
@@ -21290,9 +22049,11 @@
         <v>72128</v>
       </c>
       <c r="W371" s="8" t="n"/>
-      <c r="X371" s="8" t="n">
+      <c r="X371" s="8" t="n"/>
+      <c r="Y371" s="8" t="n">
         <v>72128</v>
       </c>
+      <c r="Z371" s="8" t="n"/>
     </row>
     <row r="372">
       <c r="A372" s="7" t="n">
@@ -21342,7 +22103,9 @@
       <c r="W372" s="8" t="n">
         <v>36064</v>
       </c>
-      <c r="X372" s="8" t="n">
+      <c r="X372" s="8" t="n"/>
+      <c r="Y372" s="8" t="n"/>
+      <c r="Z372" s="8" t="n">
         <v>36064</v>
       </c>
     </row>
@@ -21411,6 +22174,8 @@
       <c r="X373" s="8" t="n">
         <v>4616192</v>
       </c>
+      <c r="Y373" s="8" t="n"/>
+      <c r="Z373" s="8" t="n"/>
     </row>
     <row r="374">
       <c r="A374" s="7" t="n">
@@ -21462,9 +22227,11 @@
         <v>12544</v>
       </c>
       <c r="W374" s="8" t="n"/>
-      <c r="X374" s="8" t="n">
+      <c r="X374" s="8" t="n"/>
+      <c r="Y374" s="8" t="n">
         <v>12544</v>
       </c>
+      <c r="Z374" s="8" t="n"/>
     </row>
     <row r="375">
       <c r="A375" s="7" t="n">
@@ -21514,7 +22281,9 @@
       <c r="W375" s="8" t="n">
         <v>6272</v>
       </c>
-      <c r="X375" s="8" t="n">
+      <c r="X375" s="8" t="n"/>
+      <c r="Y375" s="8" t="n"/>
+      <c r="Z375" s="8" t="n">
         <v>6272</v>
       </c>
     </row>
@@ -21583,6 +22352,8 @@
       <c r="X376" s="8" t="n">
         <v>1806336</v>
       </c>
+      <c r="Y376" s="8" t="n"/>
+      <c r="Z376" s="8" t="n"/>
     </row>
     <row r="377">
       <c r="A377" s="7" t="n">
@@ -21631,6 +22402,8 @@
       <c r="V377" s="8" t="n"/>
       <c r="W377" s="8" t="n"/>
       <c r="X377" s="8" t="n"/>
+      <c r="Y377" s="8" t="n"/>
+      <c r="Z377" s="8" t="n"/>
     </row>
     <row r="378">
       <c r="A378" s="7" t="n">
@@ -21682,9 +22455,11 @@
         <v>75264</v>
       </c>
       <c r="W378" s="8" t="n"/>
-      <c r="X378" s="8" t="n">
+      <c r="X378" s="8" t="n"/>
+      <c r="Y378" s="8" t="n">
         <v>75264</v>
       </c>
+      <c r="Z378" s="8" t="n"/>
     </row>
     <row r="379">
       <c r="A379" s="7" t="n">
@@ -21734,7 +22509,9 @@
       <c r="W379" s="8" t="n">
         <v>37632</v>
       </c>
-      <c r="X379" s="8" t="n">
+      <c r="X379" s="8" t="n"/>
+      <c r="Y379" s="8" t="n"/>
+      <c r="Z379" s="8" t="n">
         <v>37632</v>
       </c>
     </row>
@@ -21803,6 +22580,8 @@
       <c r="X380" s="8" t="n">
         <v>4816896</v>
       </c>
+      <c r="Y380" s="8" t="n"/>
+      <c r="Z380" s="8" t="n"/>
     </row>
     <row r="381">
       <c r="A381" s="7" t="n">
@@ -21854,9 +22633,11 @@
         <v>12544</v>
       </c>
       <c r="W381" s="8" t="n"/>
-      <c r="X381" s="8" t="n">
+      <c r="X381" s="8" t="n"/>
+      <c r="Y381" s="8" t="n">
         <v>12544</v>
       </c>
+      <c r="Z381" s="8" t="n"/>
     </row>
     <row r="382">
       <c r="A382" s="7" t="n">
@@ -21906,7 +22687,9 @@
       <c r="W382" s="8" t="n">
         <v>6272</v>
       </c>
-      <c r="X382" s="8" t="n">
+      <c r="X382" s="8" t="n"/>
+      <c r="Y382" s="8" t="n"/>
+      <c r="Z382" s="8" t="n">
         <v>6272</v>
       </c>
     </row>
@@ -21975,6 +22758,8 @@
       <c r="X383" s="8" t="n">
         <v>1806336</v>
       </c>
+      <c r="Y383" s="8" t="n"/>
+      <c r="Z383" s="8" t="n"/>
     </row>
     <row r="384">
       <c r="A384" s="7" t="n">
@@ -22023,6 +22808,8 @@
       <c r="V384" s="8" t="n"/>
       <c r="W384" s="8" t="n"/>
       <c r="X384" s="8" t="n"/>
+      <c r="Y384" s="8" t="n"/>
+      <c r="Z384" s="8" t="n"/>
     </row>
     <row r="385">
       <c r="A385" s="7" t="n">
@@ -22074,9 +22861,11 @@
         <v>78400</v>
       </c>
       <c r="W385" s="8" t="n"/>
-      <c r="X385" s="8" t="n">
+      <c r="X385" s="8" t="n"/>
+      <c r="Y385" s="8" t="n">
         <v>78400</v>
       </c>
+      <c r="Z385" s="8" t="n"/>
     </row>
     <row r="386">
       <c r="A386" s="7" t="n">
@@ -22126,7 +22915,9 @@
       <c r="W386" s="8" t="n">
         <v>39200</v>
       </c>
-      <c r="X386" s="8" t="n">
+      <c r="X386" s="8" t="n"/>
+      <c r="Y386" s="8" t="n"/>
+      <c r="Z386" s="8" t="n">
         <v>39200</v>
       </c>
     </row>
@@ -22195,6 +22986,8 @@
       <c r="X387" s="8" t="n">
         <v>5017600</v>
       </c>
+      <c r="Y387" s="8" t="n"/>
+      <c r="Z387" s="8" t="n"/>
     </row>
     <row r="388">
       <c r="A388" s="7" t="n">
@@ -22246,9 +23039,11 @@
         <v>12544</v>
       </c>
       <c r="W388" s="8" t="n"/>
-      <c r="X388" s="8" t="n">
+      <c r="X388" s="8" t="n"/>
+      <c r="Y388" s="8" t="n">
         <v>12544</v>
       </c>
+      <c r="Z388" s="8" t="n"/>
     </row>
     <row r="389">
       <c r="A389" s="7" t="n">
@@ -22298,7 +23093,9 @@
       <c r="W389" s="8" t="n">
         <v>6272</v>
       </c>
-      <c r="X389" s="8" t="n">
+      <c r="X389" s="8" t="n"/>
+      <c r="Y389" s="8" t="n"/>
+      <c r="Z389" s="8" t="n">
         <v>6272</v>
       </c>
     </row>
@@ -22367,6 +23164,8 @@
       <c r="X390" s="8" t="n">
         <v>1806336</v>
       </c>
+      <c r="Y390" s="8" t="n"/>
+      <c r="Z390" s="8" t="n"/>
     </row>
     <row r="391">
       <c r="A391" s="7" t="n">
@@ -22415,6 +23214,8 @@
       <c r="V391" s="8" t="n"/>
       <c r="W391" s="8" t="n"/>
       <c r="X391" s="8" t="n"/>
+      <c r="Y391" s="8" t="n"/>
+      <c r="Z391" s="8" t="n"/>
     </row>
     <row r="392">
       <c r="A392" s="7" t="n">
@@ -22466,9 +23267,11 @@
         <v>81536</v>
       </c>
       <c r="W392" s="8" t="n"/>
-      <c r="X392" s="8" t="n">
+      <c r="X392" s="8" t="n"/>
+      <c r="Y392" s="8" t="n">
         <v>81536</v>
       </c>
+      <c r="Z392" s="8" t="n"/>
     </row>
     <row r="393">
       <c r="A393" s="7" t="n">
@@ -22518,7 +23321,9 @@
       <c r="W393" s="8" t="n">
         <v>40768</v>
       </c>
-      <c r="X393" s="8" t="n">
+      <c r="X393" s="8" t="n"/>
+      <c r="Y393" s="8" t="n"/>
+      <c r="Z393" s="8" t="n">
         <v>40768</v>
       </c>
     </row>
@@ -22587,6 +23392,8 @@
       <c r="X394" s="8" t="n">
         <v>5218304</v>
       </c>
+      <c r="Y394" s="8" t="n"/>
+      <c r="Z394" s="8" t="n"/>
     </row>
     <row r="395">
       <c r="A395" s="7" t="n">
@@ -22638,9 +23445,11 @@
         <v>12544</v>
       </c>
       <c r="W395" s="8" t="n"/>
-      <c r="X395" s="8" t="n">
+      <c r="X395" s="8" t="n"/>
+      <c r="Y395" s="8" t="n">
         <v>12544</v>
       </c>
+      <c r="Z395" s="8" t="n"/>
     </row>
     <row r="396">
       <c r="A396" s="7" t="n">
@@ -22690,7 +23499,9 @@
       <c r="W396" s="8" t="n">
         <v>6272</v>
       </c>
-      <c r="X396" s="8" t="n">
+      <c r="X396" s="8" t="n"/>
+      <c r="Y396" s="8" t="n"/>
+      <c r="Z396" s="8" t="n">
         <v>6272</v>
       </c>
     </row>
@@ -22759,6 +23570,8 @@
       <c r="X397" s="8" t="n">
         <v>1806336</v>
       </c>
+      <c r="Y397" s="8" t="n"/>
+      <c r="Z397" s="8" t="n"/>
     </row>
     <row r="398">
       <c r="A398" s="7" t="n">
@@ -22807,6 +23620,8 @@
       <c r="V398" s="8" t="n"/>
       <c r="W398" s="8" t="n"/>
       <c r="X398" s="8" t="n"/>
+      <c r="Y398" s="8" t="n"/>
+      <c r="Z398" s="8" t="n"/>
     </row>
     <row r="399">
       <c r="A399" s="7" t="n">
@@ -22858,9 +23673,11 @@
         <v>84672</v>
       </c>
       <c r="W399" s="8" t="n"/>
-      <c r="X399" s="8" t="n">
+      <c r="X399" s="8" t="n"/>
+      <c r="Y399" s="8" t="n">
         <v>84672</v>
       </c>
+      <c r="Z399" s="8" t="n"/>
     </row>
     <row r="400">
       <c r="A400" s="7" t="n">
@@ -22910,7 +23727,9 @@
       <c r="W400" s="8" t="n">
         <v>42336</v>
       </c>
-      <c r="X400" s="8" t="n">
+      <c r="X400" s="8" t="n"/>
+      <c r="Y400" s="8" t="n"/>
+      <c r="Z400" s="8" t="n">
         <v>42336</v>
       </c>
     </row>
@@ -22979,6 +23798,8 @@
       <c r="X401" s="8" t="n">
         <v>5419008</v>
       </c>
+      <c r="Y401" s="8" t="n"/>
+      <c r="Z401" s="8" t="n"/>
     </row>
     <row r="402">
       <c r="A402" s="7" t="n">
@@ -23030,9 +23851,11 @@
         <v>12544</v>
       </c>
       <c r="W402" s="8" t="n"/>
-      <c r="X402" s="8" t="n">
+      <c r="X402" s="8" t="n"/>
+      <c r="Y402" s="8" t="n">
         <v>12544</v>
       </c>
+      <c r="Z402" s="8" t="n"/>
     </row>
     <row r="403">
       <c r="A403" s="7" t="n">
@@ -23082,7 +23905,9 @@
       <c r="W403" s="8" t="n">
         <v>6272</v>
       </c>
-      <c r="X403" s="8" t="n">
+      <c r="X403" s="8" t="n"/>
+      <c r="Y403" s="8" t="n"/>
+      <c r="Z403" s="8" t="n">
         <v>6272</v>
       </c>
     </row>
@@ -23151,6 +23976,8 @@
       <c r="X404" s="8" t="n">
         <v>1806336</v>
       </c>
+      <c r="Y404" s="8" t="n"/>
+      <c r="Z404" s="8" t="n"/>
     </row>
     <row r="405">
       <c r="A405" s="7" t="n">
@@ -23199,6 +24026,8 @@
       <c r="V405" s="8" t="n"/>
       <c r="W405" s="8" t="n"/>
       <c r="X405" s="8" t="n"/>
+      <c r="Y405" s="8" t="n"/>
+      <c r="Z405" s="8" t="n"/>
     </row>
     <row r="406">
       <c r="A406" s="7" t="n">
@@ -23250,9 +24079,11 @@
         <v>87808</v>
       </c>
       <c r="W406" s="8" t="n"/>
-      <c r="X406" s="8" t="n">
+      <c r="X406" s="8" t="n"/>
+      <c r="Y406" s="8" t="n">
         <v>87808</v>
       </c>
+      <c r="Z406" s="8" t="n"/>
     </row>
     <row r="407">
       <c r="A407" s="7" t="n">
@@ -23302,7 +24133,9 @@
       <c r="W407" s="8" t="n">
         <v>43904</v>
       </c>
-      <c r="X407" s="8" t="n">
+      <c r="X407" s="8" t="n"/>
+      <c r="Y407" s="8" t="n"/>
+      <c r="Z407" s="8" t="n">
         <v>43904</v>
       </c>
     </row>
@@ -23371,6 +24204,8 @@
       <c r="X408" s="8" t="n">
         <v>5619712</v>
       </c>
+      <c r="Y408" s="8" t="n"/>
+      <c r="Z408" s="8" t="n"/>
     </row>
     <row r="409">
       <c r="A409" s="7" t="n">
@@ -23422,9 +24257,11 @@
         <v>12544</v>
       </c>
       <c r="W409" s="8" t="n"/>
-      <c r="X409" s="8" t="n">
+      <c r="X409" s="8" t="n"/>
+      <c r="Y409" s="8" t="n">
         <v>12544</v>
       </c>
+      <c r="Z409" s="8" t="n"/>
     </row>
     <row r="410">
       <c r="A410" s="7" t="n">
@@ -23474,7 +24311,9 @@
       <c r="W410" s="8" t="n">
         <v>6272</v>
       </c>
-      <c r="X410" s="8" t="n">
+      <c r="X410" s="8" t="n"/>
+      <c r="Y410" s="8" t="n"/>
+      <c r="Z410" s="8" t="n">
         <v>6272</v>
       </c>
     </row>
@@ -23543,6 +24382,8 @@
       <c r="X411" s="8" t="n">
         <v>1806336</v>
       </c>
+      <c r="Y411" s="8" t="n"/>
+      <c r="Z411" s="8" t="n"/>
     </row>
     <row r="412">
       <c r="A412" s="7" t="n">
@@ -23591,6 +24432,8 @@
       <c r="V412" s="8" t="n"/>
       <c r="W412" s="8" t="n"/>
       <c r="X412" s="8" t="n"/>
+      <c r="Y412" s="8" t="n"/>
+      <c r="Z412" s="8" t="n"/>
     </row>
     <row r="413">
       <c r="A413" s="7" t="n">
@@ -23642,9 +24485,11 @@
         <v>90944</v>
       </c>
       <c r="W413" s="8" t="n"/>
-      <c r="X413" s="8" t="n">
+      <c r="X413" s="8" t="n"/>
+      <c r="Y413" s="8" t="n">
         <v>90944</v>
       </c>
+      <c r="Z413" s="8" t="n"/>
     </row>
     <row r="414">
       <c r="A414" s="7" t="n">
@@ -23694,7 +24539,9 @@
       <c r="W414" s="8" t="n">
         <v>45472</v>
       </c>
-      <c r="X414" s="8" t="n">
+      <c r="X414" s="8" t="n"/>
+      <c r="Y414" s="8" t="n"/>
+      <c r="Z414" s="8" t="n">
         <v>45472</v>
       </c>
     </row>
@@ -23763,6 +24610,8 @@
       <c r="X415" s="8" t="n">
         <v>5820416</v>
       </c>
+      <c r="Y415" s="8" t="n"/>
+      <c r="Z415" s="8" t="n"/>
     </row>
     <row r="416">
       <c r="A416" s="7" t="n">
@@ -23814,9 +24663,11 @@
         <v>12544</v>
       </c>
       <c r="W416" s="8" t="n"/>
-      <c r="X416" s="8" t="n">
+      <c r="X416" s="8" t="n"/>
+      <c r="Y416" s="8" t="n">
         <v>12544</v>
       </c>
+      <c r="Z416" s="8" t="n"/>
     </row>
     <row r="417">
       <c r="A417" s="7" t="n">
@@ -23866,7 +24717,9 @@
       <c r="W417" s="8" t="n">
         <v>6272</v>
       </c>
-      <c r="X417" s="8" t="n">
+      <c r="X417" s="8" t="n"/>
+      <c r="Y417" s="8" t="n"/>
+      <c r="Z417" s="8" t="n">
         <v>6272</v>
       </c>
     </row>
@@ -23935,6 +24788,8 @@
       <c r="X418" s="8" t="n">
         <v>1806336</v>
       </c>
+      <c r="Y418" s="8" t="n"/>
+      <c r="Z418" s="8" t="n"/>
     </row>
     <row r="419">
       <c r="A419" s="7" t="n">
@@ -23983,6 +24838,8 @@
       <c r="V419" s="8" t="n"/>
       <c r="W419" s="8" t="n"/>
       <c r="X419" s="8" t="n"/>
+      <c r="Y419" s="8" t="n"/>
+      <c r="Z419" s="8" t="n"/>
     </row>
     <row r="420">
       <c r="A420" s="7" t="n">
@@ -24034,9 +24891,11 @@
         <v>94080</v>
       </c>
       <c r="W420" s="8" t="n"/>
-      <c r="X420" s="8" t="n">
+      <c r="X420" s="8" t="n"/>
+      <c r="Y420" s="8" t="n">
         <v>94080</v>
       </c>
+      <c r="Z420" s="8" t="n"/>
     </row>
     <row r="421">
       <c r="A421" s="7" t="n">
@@ -24086,7 +24945,9 @@
       <c r="W421" s="8" t="n">
         <v>47040</v>
       </c>
-      <c r="X421" s="8" t="n">
+      <c r="X421" s="8" t="n"/>
+      <c r="Y421" s="8" t="n"/>
+      <c r="Z421" s="8" t="n">
         <v>47040</v>
       </c>
     </row>
@@ -24155,6 +25016,8 @@
       <c r="X422" s="8" t="n">
         <v>6021120</v>
       </c>
+      <c r="Y422" s="8" t="n"/>
+      <c r="Z422" s="8" t="n"/>
     </row>
     <row r="423">
       <c r="A423" s="7" t="n">
@@ -24206,9 +25069,11 @@
         <v>12544</v>
       </c>
       <c r="W423" s="8" t="n"/>
-      <c r="X423" s="8" t="n">
+      <c r="X423" s="8" t="n"/>
+      <c r="Y423" s="8" t="n">
         <v>12544</v>
       </c>
+      <c r="Z423" s="8" t="n"/>
     </row>
     <row r="424">
       <c r="A424" s="7" t="n">
@@ -24258,7 +25123,9 @@
       <c r="W424" s="8" t="n">
         <v>6272</v>
       </c>
-      <c r="X424" s="8" t="n">
+      <c r="X424" s="8" t="n"/>
+      <c r="Y424" s="8" t="n"/>
+      <c r="Z424" s="8" t="n">
         <v>6272</v>
       </c>
     </row>
@@ -24327,6 +25194,8 @@
       <c r="X425" s="8" t="n">
         <v>1806336</v>
       </c>
+      <c r="Y425" s="8" t="n"/>
+      <c r="Z425" s="8" t="n"/>
     </row>
     <row r="426">
       <c r="A426" s="7" t="n">
@@ -24375,6 +25244,8 @@
       <c r="V426" s="8" t="n"/>
       <c r="W426" s="8" t="n"/>
       <c r="X426" s="8" t="n"/>
+      <c r="Y426" s="8" t="n"/>
+      <c r="Z426" s="8" t="n"/>
     </row>
     <row r="427">
       <c r="A427" s="7" t="n">
@@ -24426,9 +25297,11 @@
         <v>97216</v>
       </c>
       <c r="W427" s="8" t="n"/>
-      <c r="X427" s="8" t="n">
+      <c r="X427" s="8" t="n"/>
+      <c r="Y427" s="8" t="n">
         <v>97216</v>
       </c>
+      <c r="Z427" s="8" t="n"/>
     </row>
     <row r="428">
       <c r="A428" s="7" t="n">
@@ -24478,7 +25351,9 @@
       <c r="W428" s="8" t="n">
         <v>48608</v>
       </c>
-      <c r="X428" s="8" t="n">
+      <c r="X428" s="8" t="n"/>
+      <c r="Y428" s="8" t="n"/>
+      <c r="Z428" s="8" t="n">
         <v>48608</v>
       </c>
     </row>
@@ -24547,6 +25422,8 @@
       <c r="X429" s="8" t="n">
         <v>6221824</v>
       </c>
+      <c r="Y429" s="8" t="n"/>
+      <c r="Z429" s="8" t="n"/>
     </row>
     <row r="430">
       <c r="A430" s="7" t="n">
@@ -24598,9 +25475,11 @@
         <v>12544</v>
       </c>
       <c r="W430" s="8" t="n"/>
-      <c r="X430" s="8" t="n">
+      <c r="X430" s="8" t="n"/>
+      <c r="Y430" s="8" t="n">
         <v>12544</v>
       </c>
+      <c r="Z430" s="8" t="n"/>
     </row>
     <row r="431">
       <c r="A431" s="7" t="n">
@@ -24650,7 +25529,9 @@
       <c r="W431" s="8" t="n">
         <v>6272</v>
       </c>
-      <c r="X431" s="8" t="n">
+      <c r="X431" s="8" t="n"/>
+      <c r="Y431" s="8" t="n"/>
+      <c r="Z431" s="8" t="n">
         <v>6272</v>
       </c>
     </row>
@@ -24719,6 +25600,8 @@
       <c r="X432" s="8" t="n">
         <v>1806336</v>
       </c>
+      <c r="Y432" s="8" t="n"/>
+      <c r="Z432" s="8" t="n"/>
     </row>
     <row r="433">
       <c r="A433" s="7" t="n">
@@ -24770,9 +25653,11 @@
         <v>100352</v>
       </c>
       <c r="W433" s="8" t="n"/>
-      <c r="X433" s="8" t="n">
+      <c r="X433" s="8" t="n"/>
+      <c r="Y433" s="8" t="n">
         <v>100352</v>
       </c>
+      <c r="Z433" s="8" t="n"/>
     </row>
     <row r="434">
       <c r="A434" s="7" t="n">
@@ -24819,9 +25704,11 @@
       <c r="X434" s="8" t="n">
         <v>1024000</v>
       </c>
+      <c r="Y434" s="8" t="n"/>
+      <c r="Z434" s="8" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -24829,7 +25716,8 @@
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="S1:S434">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
@@ -24843,7 +25731,12 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U434">
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="2" stopIfTrue="1">
-      <formula>472055808</formula>
+      <formula>118013952</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X1:X434">
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="3" stopIfTrue="1">
+      <formula>118013952</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24898,11 +25791,11 @@
     <row r="4">
       <c r="A4" s="8" t="inlineStr">
         <is>
-          <t>Total GEMM (G_ops):</t>
+          <t>Total Forward GEMM (G_ops):</t>
         </is>
       </c>
       <c r="B4" s="8" t="n">
-        <v>3.18820352</v>
+        <v>2.834161664</v>
       </c>
     </row>
   </sheetData>
